--- a/src/my_rag/evaluations/results/rag_evaluations_embedder_nvidia_NV-Embed-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_embedder_nvidia_NV-Embed-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
@@ -480,11 +480,11 @@
         <is>
           <t>Based on the context provided, long non-coding RNAs (lncRNAs) appear to be spliced, but less efficiently than protein-coding genes. Specifically:
 1. The passage states that "Long noncoding RNAs (lncRNAs) appear to be less efficiently spliced than protein coding genes and, on occasion, may even remain unspliced."
-2. It mentions that lncRNAs have lower co-transcriptional splicing index (coSI) scores compared to protein-coding genes, indicating less efficient splicing.
-3. It notes that about 25% of newly identified lincRNAs (a type of lncRNA) showed little signal for sequence conservation and may serve as templates/targets for siRNAs, suggesting they may remain unspliced.
-4. However, the majority (75%) of lincRNAs tended to be more conserved and had features associating them with various biological processes, implying they are likely spliced.
-5. The passage also mentions that some specific lncRNAs like AIRN and KCNQ1OT1 likely remain unspliced in the nucleus.
-So in summary, while lncRNAs do appear to be spliced in general, they tend to be spliced less efficiently than protein-coding genes, and some lncRNAs may remain completely unspliced. The splicing behavior seems to vary among different lncRNAs.</t>
+2. It mentions that lncRNAs have lower "coSI" (co-transcriptional splicing index) scores compared to protein-coding genes, indicating they are spliced less co-transcriptionally. 
+3. It notes that about 25% of newly identified lincRNAs (a type of lncRNA) showed little sequence conservation and may serve as templates/targets for siRNAs, while the other 75% tended to be more conserved and had intriguing expression/sequence features.
+4. The study identified 170 lincRNAs in C. elegans that had "single- or multiexonic structures", indicating they can be spliced.
+5. It states that "Most LncRNAs are spliced (98%)", though they tend to have simpler exon structures than protein-coding genes.
+So in summary, while lncRNAs are generally spliced, they appear to be spliced less efficiently and sometimes remain unspliced compared to protein-coding genes. The splicing of lncRNAs seems to be more variable and potentially regulated differently than protein-coding transcripts.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,9 +516,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, yes, Denosumab has been approved by the FDA for use in patients with metastatic castration-resistant prostate cancer (CRPC). Specifically, the context states:
+          <t>Based on the information provided in the context, yes, Denosumab has been approved by the FDA for use in men with metastatic castration-resistant prostate cancer (CRPC). Specifically, the passage states:
 "The FDA approved in November 2010 denosumab for the prevention of SREs in men with metastatic CRPC and bone metastases."
-So Denosumab (brand name Xgeva) was approved by the FDA in November 2010 for preventing skeletal-related events in men with metastatic CRPC and bone metastases.</t>
+The context also mentions that Denosumab is one of four new agents approved by the FDA in 2010-2011 for the treatment of metastatic CRPC, along with sipuleucel-T, cabazitaxel, and abiraterone acetate.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -550,15 +550,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Based on the information provided in this research article, Hirschsprung disease (HSCR) appears to be a multifactorial disorder with complex genetic etiology, rather than a simple Mendelian disorder. Key points that support this:
-1. The article describes HSCR as having a "complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
-2. It states that HSCR has "differential contributions of its rare and common, coding and noncoding mutations to the multifactorial nature of this pathology."
-3. The researchers found evidence for a "synergistic effect" between rare coding variants and common non-coding variants in RET, supporting an "additive/multiplicative model" for HSCR.
-4. They describe HSCR as having "a complex additive mode of inheritance."
-5. The article mentions that HSCR shows "sex-dependent penetrance," which is characteristic of multifactorial disorders.
-6. Even after analyzing multiple genes, a portion of HSCR cases remained unexplained, suggesting additional unidentified genetic or environmental factors.
-7. The researchers conclude that "RET CVs and RVs seem to act in a synergistic way leading to HSCR phenotype," indicating multiple genetic factors contribute.
-So in summary, while certain genes like RET play a major role, HSCR appears to result from a complex interplay of multiple genetic and potentially environmental factors, rather than following simple Mendelian inheritance patterns. This supports classifying it as a multifactorial disorder.</t>
+          <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder with complex genetic etiology, rather than a simple Mendelian disorder. Key points that support this:
+1. The article states that HSCR has a "complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
+2. It mentions that HSCR has "differential contributions of its rare and common, coding and noncoding mutations to the multifactorial nature of this pathology."
+3. The study found that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR risk, suggesting multiple genetic factors are involved.
+4. The authors describe an "additive/multiplicative model" for HSCR, indicating multiple genes/variants interact to produce the phenotype. 
+5. They found that in many cases, patients had both a rare coding variant and a common noncoding variant in RET, acting synergistically.
+6. Even after analyzing RET variants, a portion of HSCR cases remained unexplained, suggesting other genes are likely involved as well.
+7. The complex inheritance pattern, involving multiple genes and both rare and common variants, is more consistent with a multifactorial disorder than a simple Mendelian condition.
+In summary, while certain rare mutations may cause Mendelian forms in some families, the overall evidence indicates HSCR is primarily a multifactorial disorder with complex genetic architecture involving multiple genes and variants.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -591,11 +591,11 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>Based on the context provided, it appears that RANKL is indeed secreted from the cells. Specifically:
-1. The passage mentions measuring the "RANKL/OPG ratio secreted by co-cultured osteoblasts" using ELISA analysis of cell culture medium. This indicates RANKL is secreted into the culture medium.
-2. It states there was an "increased RANKL/OPG ratio secreted by co-cultured osteoblasts compared with single-cultured" cells. 
+1. The passage mentions measuring the "RANKL/OPG ratio secreted by co-cultured osteoblasts" using ELISA analysis of cell culture medium. This indicates RANKL is secreted into the culture medium by the osteoblast cells.
+2. It states there was "An increased RANKL/OPG ratio secreted by co-cultured osteoblasts compared with single-cultured" cells. Again, this refers to RANKL being secreted by the osteoblasts.
 3. The OPG/RANKL/RANK system is described as an "essential mechanism for regulation of bone metabolism", with RANKL binding to RANK on other cells to promote osteoclastogenesis. This implies RANKL needs to be secreted to interact with RANK on other cells.
-4. The passage notes that "RANKL combined with RANK is associated with osteoclastogenesis", again suggesting RANKL is secreted to bind RANK on osteoclasts.
-So in summary, the context clearly indicates that RANKL is secreted from cells (particularly osteoblasts) into the extracellular environment where it can interact with other cells. The measurement of secreted RANKL in the culture medium further confirms this.</t>
+4. The passage mentions RANKL/OPG protein expression in osteoblasts was decreased in co-culture, suggesting RANKL is produced by the osteoblasts and can be secreted.
+So in summary, yes, the context indicates that RANKL is secreted from the osteoblast cells into the extracellular environment, where it can interact with other cells as part of regulating bone metabolism.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -627,13 +627,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Based on the context provided, the potential use of trastuzumab (Herceptin) for treating prostate cancer appears limited:
-1. While HER2 is expressed in most prostate cancers and overexpressed in advanced disease, suggesting it could be a promising target, clinical trials have failed to show benefits of HER2-targeting therapies in prostate cancer:
-"However, several clinical trials have failed to show any benefits using either antibody that inhibits HER2 dimerization or small molecule inhibitor of EGFR-HER2. Similarly, a clinical trial with trastuzumab as a single agent demonstrated poor efficacy in treating hormonal refractory human prostate cancer."
-2. The context notes that carcinomas like prostate tumors have been found to be resistant or much less sensitive to Herceptin treatment compared to breast cancer:
-"Furthermore, carcinomas with a high expression of ErbB2, such as non-small cell lung carcinoma, gastric and prostate tumors, have been found to be resistant or much less sensitive to Herceptin treatment."
-3. The article suggests that alternative HER2-targeting approaches, like radioimmunotherapy with 212Pb-trastuzumab, may be more promising for prostate cancer than trastuzumab alone. However, this is still experimental.
-In summary, while HER2 is a potential target in prostate cancer, trastuzumab alone has not shown efficacy in clinical trials for this indication, and prostate tumors appear to be resistant to its effects. More research is needed on alternative HER2-targeting approaches for prostate cancer treatment.</t>
+          <t>Based on the information provided in the context, Trastuzumab (Herceptin) does not appear to be very effective as a single agent for treating prostate cancer, despite HER2 being expressed in many prostate cancers. Specifically:
+1. Clinical trials have failed to show benefits of using Trastuzumab or other HER2-targeting antibodies for prostate cancer:
+"However, several clinical trials have failed to show any benefits using either antibody that inhibits HER2 dimerization or small molecule inhibitor of EGFR-HER2."
+2. A clinical trial with Trastuzumab alone showed poor efficacy:
+"Similarly, a clinical trial with trastuzumab as a single agent demonstrated poor efficacy in treating hormonal refractory human prostate cancer."
+3. While HER2 is expressed in prostate cancers, it is rarely amplified to the high levels seen in some breast cancers:
+"Whereas rarely amplified, HER2 is expressed in most prostate cancers and overexpressed in advanced diseases, suggesting it could serve as a promising target for management of advanced prostate cancer."
+4. The context suggests more success with radioactively labeled Trastuzumab (212Pb-trastuzumab) than Trastuzumab alone, indicating the antibody itself may not be very effective.
+In summary, while HER2 is a potential target in prostate cancer, Trastuzumab on its own does not appear to be an effective treatment based on clinical trial results so far. More research may be needed to determine if it could be useful as part of combination therapies or in radioactively labeled forms.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -665,15 +667,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following ligands are known to interact with and bind to the epidermal growth factor receptor (EGFR):
+          <t>Based on the context provided, the following ligands are known to interact with and bind to EGFR (epidermal growth factor receptor):
 1. Epidermal growth factor (EGF)
-2. Betacellulin (BTC)  
+2. Betacellulin (BTC) 
 3. Heparin-binding EGF-like growth factor (HB-EGF)
 4. Amphiregulin (AR)
 5. Epiregulin (EPR)
 6. Transforming growth factor-α (TGF-α)
 7. Epigen (EPG)
-The passage states that "Seven different ligands are known to bind to EGFR" and then lists these 7 specific ligands. It also mentions that these ligands fall into two affinity classes - high affinity (EGF, TGF-α, HB-EGF, and BTC) and low affinity (AR, EPR, and EPG).</t>
+The passage states that these seven different ligands are known to bind to EGFR. They are all synthesized as transmembrane proteins that are cleaved to produce soluble growth factors, and they share a common EGF-like motif structure.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -705,9 +707,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Based on the context provided, orteronel was developed for the treatment of castration-resistant prostate cancer (CRPC). Specifically, the passage states:
-"This is the first clinical report to evaluate the safety, tolerability, pharmacokinetics (PK), pharmacodynamics (PD), and efficacy of orteronel based on the findings of a phase 1 study in Japanese patients with chemotherapy-naïve CRPC."
-The study described was conducted in patients with CRPC to evaluate orteronel as a potential treatment for this type of prostate cancer.</t>
+          <t>Based on the context provided, orteronel was developed for the treatment of castration-resistant prostate cancer (CRPC). Specifically:
+- The study described was conducted in "Japanese patients with castration-resistant prostate cancer (CRPC)".
+- It mentions that orteronel is an inhibitor of 17,20-lyase, which is involved in androgen synthesis. Inhibiting androgen synthesis is a key treatment approach for prostate cancer.
+- The study evaluated orteronel's effects on prostate-specific antigen (PSA) levels, which is a biomarker used to monitor prostate cancer. 
+- It discusses orteronel as a potential new therapeutic option for patients with CRPC.
+So in summary, orteronel was developed specifically as a treatment for castration-resistant prostate cancer.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -740,12 +745,12 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>Based on the context provided, Pannexin1 (Panx1) is located in the following places:
-1. Plasma membrane - The article states that Panx1 "traffic to the plasma membrane" and forms "single membrane channels" there.
-2. Ubiquitously expressed in the central nervous system (CNS), including in neurons and astrocytes.
-3. In the inner and outer retina in mammals.
-4. In zebrafish, Panx1a is expressed exclusively in horizontal cells of the outer retina, while Panx1b is expressed in the inner retina. 
-5. In skeletal muscle cells.
-The article emphasizes that Panx1 forms channels in the plasma membrane, where it can function in ATP release and signaling. This is in contrast to Pannexin2, which is described as being localized intracellularly in endosomal vesicles rather than the plasma membrane.</t>
+1. In the plasma membrane of cells. The article states that Panx1 "traffic to the plasma membrane" and forms "single membrane channels" called pannexons.
+2. In the inner and outer retina in mammals. The article mentions that in mammals, Panx1 is "widely expressed in the CNS including the inner and outer retinae".
+3. In neurons and astrocytes in the nervous system. The article notes that Panx1 is "expressed in significant levels in neurons and astrocytes".
+4. In skeletal muscle cells. The article discusses Panx1 channels being involved in skeletal muscle processes and contraction.
+5. Ubiquitously expressed throughout the body. The article refers to Panx1 as "ubiquitous" multiple times.
+So in summary, Pannexin1 is primarily located in the plasma membrane of various cell types throughout the body, with notable expression in the nervous system, retina, and skeletal muscle. Its localization to the plasma membrane allows it to form channels for signaling and release of molecules like ATP.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,10 +782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Based on the context provided, the main acetylcholinesterase inhibitors used for treatment of myasthenia gravis are:
-1. Pyridostigmine bromide - This is the most commonly used acetylcholinesterase inhibitor for myasthenia gravis.
-2. Neostigmine - This is mentioned as being rarely used compared to pyridostigmine, due to its poorer pharmacodynamic profile and tolerability.
-The passage states that pyridostigmine is the first-line symptomatic treatment option for myasthenia gravis. It notes that other acetylcholinesterase inhibitors like neostigmine are rarely used because they have poorer pharmacodynamic profiles and tolerability compared to pyridostigmine. Two observational studies are cited showing pyridostigmine was more effective with fewer adverse events compared to neostigmine in myasthenia gravis patients.</t>
+          <t>Based on the given context, I do not have enough information to answer which specific acetylcholinesterase inhibitors are used to treat myasthenia gravis. The provided text does not discuss myasthenia gravis or its treatments. The passage appears to be about pannexin 1 channels in skeletal muscles. To accurately answer the question about myasthenia gravis treatments, I would need additional relevant information that is not present in this context.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -790,12 +792,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['10.2147_TCRM.S14015.pdf', '10.2147_TCRM.S14015.pdf', '10.2147_TCRM.S14015.pdf', '10.2147_TCRM.S14015.pdf', '10.2147_TCRM.S14015.pdf']</t>
+          <t>['10.3389_fphys.2014.00139.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.3389_fphys.2014.00139.pdf', '10.3389_fphys.2014.00139.pdf', '10.3389_fphys.2014.00139.pdf']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['© 2011 Sathasivam, publisher and licensee Dove Medical Press Ltd. This is an Open Access article  \nwhich permits unrestricted noncommercial use, provided the original work is properly cited.Therapeutics and Clinical Risk Management 2011:7 313–323Therapeutics and Clinical Risk Management Dovepress\nsubmit your manuscript | www.dovepress.co m\nDovepress 313Reviewopen access to scientific and medical research\nOpen Access Full T ext Article\nhttp: //dx.doi.org/10.2147/TCRM.S1401 5Current and emerging treatments  \nfor the management of myasthenia gravis\nSivakumar Sathasivam\nThe walton Centre NHS Foundation \nTrust, Lower Lane, Liverpool, UK\nCorrespondence: Sivakumar Sathasivam  \nThe walton Centre NHS Foundation \nTrust, Lower Lane, Liverpool L9 7LJ, UK Tel +44 1515298151 Fax +44 1515295512 email sivakumar.sathasivam@thewaltoncentre.nhs.ukAbstract:  Myasthenia gravis is an autoimmune neuromuscular disorder. There are several \ntreatment options, including symptomatic treatment (acetylcholinesterase inhibitors), short-term \nimmunosuppression (corticosteroids), long-term immunosuppression (azathioprine, cyclosporine, \ncyclophosphamide, methotrexate, mycophenolate mofetil, rituximab, tacrolimus), rapid acting \nshort-term immunomodulation (intravenous immunoglobulin, plasma exchange), and long-term \nimmunomodulation (thymectomy). This review explores in detail these different treatment \noptions. Potential future treatments are also discussed.\nKeywords: acetylcholinesterase inhibition, immunosuppression, immunomodulation, \nthymectomy\nIntroduction\nMyasthenia gravis (MG) is a neuromuscular disorder characterized by a clinical \ncourse of fluctuating, painless muscle weakness. Typically it begins in the extraocular muscles and remains purely ocular in 15% of patients. MG generalizes by  descending to \ninvolve the bulbar muscles, and subsequently the neck, proximal limb, and  sometimes \n respiratory muscles. Even with modern treatments, at least 20% of patients experience \na myasthenic crisis which requires intubation and mechanical ventilation, usually within the first 2 years of the diagnosis.\nMG is an autoimmune disorder usually caused by antibodies to postsynaptic \nproteins, mainly nicotinic acetylcholine receptor (AChR) and muscle-specific kinase (MuSK), but there are other as yet undiscovered antigens. These  antibodies reduce \nthe number of functional AChRs and thus impair neuromuscular transmission. \nThe prevalence of MG has increased from around 5 per million population between 1915 and 1934\n1 to about 200 per million population now,2 in part due to improved \ndetection of the antibodies to the postsynaptic proteins. The estimated annual incidence of MG is between 1 in 10,000 to 1 in 50,000 of the population,\n3 but \nthe clinical recognition of this rare disease remains difficult with many patients going undiagnosed for many months from symptom onset, and the diagnosis only  correctly made after several physician consultations. In the past 70 years, treatment \nadvances have reduced the mortality of MG from 70% between 1915 and 1934\n1 \nto 5% or less now.4\nIn this review an overview will be given of the mechanism, evidence, indication, \nand relevant adverse effect profile of the different treatment options in generalized MG. Several potential future therapies will also be discussed.\nTherapeutics and Clinical Risk Management downloaded from https://www.dovepress.com/\nFor personal use only.\nTherapeutics and Clinical Risk Management 2011:7submit your manuscript | www.dovepress.co m\nDovepress Dovepress\n314Sathasivam\nSymptomatic treatment\nAcetylcholinesterase inhibitors\nIn MG, the first-line option is symptomatic treatment with', 'Dovepress Dovepress\n314Sathasivam\nSymptomatic treatment\nAcetylcholinesterase inhibitors\nIn MG, the first-line option is symptomatic treatment with \nacetylcholinesterase inhibitors. Pyridostigmine bromide is the most commonly used drug. Other acetylcholinesterase inhibitors such as neostigmine are rarely used because of their poorer pharmacodynamic profiles and tolerability. In an observational study of 14 MG patients comparing pyridostigmine with neostigmine, it was concluded that over 1 year, pyridostigmine was more effective with less adverse events.\n5 Similar conclusions were reached in another \nobservational study of 69 patients which compared the use of pyridostigmine with neostigmine.\n6 There is no large \nrandomized controlled trial of acetylcholinesterase inhibitors in MG, but the clear response of this drug in observational studies would make depriving patients in the placebo arm of a randomized controlled trial unethical and unjustifiable.\n7\nPyridostigmine is most effective early in the course of MG \nand over time increasing tolerance to the drug develops which may necessitate dose escalation. Most MG patients do not achieve adequate response with acetylcholinesterase inhibitor treatment and will require further immunosuppression. It is also noteworthy that some MuSK antibody-positive patients may show nonresponsiveness to acetylcholinesterase inhibitors. In one study, 71% of MuSK antibody positive patients failed to respond to acetylcholinesterase inhibitors, compared to 18% respectively of AChR antibody positive and seronegative patients.\n8 Pyridostigmine is generally well tolerated. Adverse \nevents include muscarinic side effects such as nausea, vomiting, abdominal cramping, diarrhea, diaphoresis, increased lacrimation, excessive respiratory secretions, bradycardia, and atrioventricular block. Antimuscarinics such as propantheline bromide provide effective symptomatic relief against the abdominal adverse events induced by pyridostigmine. Pyridostigmine may also cause nicotinic adverse events such as muscle cramps and fasciculations, but these rarely require a change in the dose of the drug. High doses of pyridostigmine may desensitize AChRs and induce weakness resulting in a cholinergic crisis. If there is such a concern, cholinesterase inhibitors need to be temporarily withdrawn and the patient carefully monitored for improvement.\nShort-term immunosuppression\nCorticosteroids\nCorticosteroids are thought to act on the immune system \nby inhibiting the activation of T -cells and impairing the function of cells of the monocyte/macrophage lineage. Adrenocorticotrophic hormone (ACTH) was first described to have a beneficial effect in MG in 1935.\n9 ‘Good improvement’ \nwas reported in a study of 100 patients with severe refractory MG given ACTH.\n10 In four large retrospective studies of \ngeneralized MG using various doses of corticosteroids and with different follow-up durations, 74% of a total of 422 patients achieved good overall improvement of muscle strength or remission.\n11–14 A prospective study of 600 MG \npatients (151  generalized, 449 pure ocular) treated with \nmoderate doses of corticosteroids followed by low-dose maintenance showed an overall improvement in 95% of cases, but no clear breakdown between the generalized and ocular cases were given.\n15\nA randomized double-blind trial of prednisolone versus \nplacebo in 13 patients with generalized MG showed no significant improvement of muscle strength at 6 months.\n16 \nAnother randomized double-blind trial of intravenous methylprednisolone versus placebo in 19 patients with generalized MG showed a significant short-term benefit from corticosteroids 2 weeks after treatment.\n17 An open-', 'study of daily versus alternately daily schedule. Acta Neurol Scand. \n1999;99(3):147–151.\n 91. Trikha I, Singh S, Goyal V , Shukla G, Bhasin R, Behari M.  Comparative \nefficacy of low dose daily versus alternate day plasma exchange \nin severe myasthenia gravis: a randomised trial. J Neurol. 2007; \n254(8):989–995.\n 92. Gronseth GS. Barohn RJ. Practice parameter: thymectomy for auto-\nimmune myasthenia gravis (an evidence-based review): report of the  Quality Standards Subcommittee of the American Academy of \n Neurology. Neurology. 2000;55(1):7–15.\n 93. Gold R, Schneider-Gold R. Current and future standards in treatment \nof myasthenia gravis. Neurotherapeutics. 2008;5(4):535–541.\n 94. Kumar V , Kaminski HJ. Treatment of myasthenia gravis. Curr Neurol \nNeurosci Rep. 2011;11(1):89–96.\n 95. Leite MI, Strobel P , Jones M, et al. Fewer thymic changes in MuSK \nantibody positive than in MuSK antibody-negative MG. Ann Neurol. \n2005;57(3):444–448.\n 96. Souroujon MC, Brenner T, Fuchs S. Development of novel therapies \nfor MG: studies in animal models. Autoimmunity. 2010;43(5–6): \n446–460.\n 97. Lagoumintzis G, Zisimopoulou P , Kordas G, Lazaridis K, Poulas K, \nTzartos SJ. Recent approaches to the development of antigen-specific immunotherapies for myasthenia gravis. Autoimmunity. 2010;43(5–6): \n436–445.\n 98. Meinl E, Klinkert WE, Wekerle H. The thymus in myasthenia gravis. \nChanges typical for the human disease are absent in experimental auto-immune myasthenia gravis of the Lewis rat. Am J Pathol. 1991;139(5): \n995–1008.\n 99. Bartfeld D, Fuchs S. Specific immunosuppression of experimental \nautoimmune myasthenia gravis by denatured acetylcholine receptor. Proc Natl Acad Sci U S A. 1978;75(8):4006–4010. 100. Wang ZY , Qiao J, Link H. Suppression of experimental autoimmune \nmyasthenia gravis by oral administration of acetylcholine receptor.  \nJ Neuroimmunol. 1993;44(2):209–214.\n 101. Okumura S, McIntosh K, Drachman DB. Oral administration of \n acetylcholine receptor: effects on experimental myasthenia gravis. \nAnn Neurol. 1994;36(5):704–713.\n 102. Ma CG, Zhang GX, Xiao BG, Link J, Olsson T, Link H. Suppression \nof experimental autoimmune myasthenia gravis by nasal administration of acetylcholine receptor. J Neuroimmunol. 1995;58(1):51–60.\n 103. Drachman DB, Okumura S, Adams RN, McIntosh KR. Oral tolerance \nin myasthenia gravis. Ann NY Acad Sci. 1996;778:258–272.\n 104. Shi FD, Bai XF , Li HL, Huang YM, Van der Meide PH, Link H. Nasal \ntolerance in experimental autoimmune myasthenia gravis (EAMG): induction of protective tolerance in primed animals. Clin Exp Immunol.  \n1998;111(3):506–512.\n 105. Tzartos SJ, Lindstrom JM. Monoclonal antibodies used to probe \n acetylcholine receptor structure: localization of the main immunogenic \nregion and detection of similarities between subunits. Proc Natl Acad \nSci U S A. 1980;77(2):755–759.\n 106. Im SH, Barchan D, Fuchs S, Souroujan MC. Suppression of  ongoing \nexperimental myasthenia by oral treatment with an acetylcholine \n receptor recombinant fragment. J Clin Invest. 1999;104(12): \n1723–1730.\n 107. Barchan D, Souroujon MC, Im SH, Antozzi C, Fuchs S. Antigen-  specific \nmodulation of experimental myasthenia gravis: nasal tolerization \nwith recombinant fragments of the human acetylcholine receptor  alpha-subunit. Proc Natl Acad Sci U S A. 1999;96(14):8086–8091.\n 108. Im SH, Barchan D, Fuchs S, Souroujon MC. Mechanism of nasal \n tolerance induced by a recombinant fragment of acetylcholine  receptor \nfor treatment of experimental myasthenia gravis. J Neuroimmunol. \n2000;111(1–2):161–168.\n 109. Maiti PK, Feferman T, Im SH, Souroujon MC, Fuchs S. Immunosup-\npression of rat myasthenia gravis by oral administration of a syngeneic acetylcholine receptor fragment. J Neuroimmunol. 2004;152(1–2): \n112–120.\n 110. Wu B, Deng C, Goluszko E, Christadoss P . Tolerance to a dominant \nT cell epitope in the acetylcholine receptor molecule induces epitope spread and suppresses murine myasthenia gravis. J Immunol. 1997;', '27. Heckmann JM, LeePan EB, Eastman R W . High-dose immunosuppressive \ntherapy in generalized myasthenia gravis – a 2-year follow-up study.  \nS Afr Med J. 2001;91(9):765–770.\n 28. Myasthenia Gravis Clinical Study Group. A randomised clinical trial \ncomparing prednisolone and azathioprine in myasthenia gravis. Results of a second interim analysis. J Neurol Neurosurg Psychiatry. 1993; \n56(11):1157–1163.\n 29. Palace J, Newsom-Davis J, Lecky B. A randomized double-blind \ntrial of prednisolone alone or with azathioprine in myasthenia gravis. Neurology. 1998;50(6):1778–1783.\n 30. Goulon M, Elkharrat D, Lokiec F , Gajdos P . Results of a one-year \nopen trial of cyclosporine in ten patients with severe myasthenia gravis. Transplant Proc. 1988;20(3 Suppl 4):211–217.\n 31. Bonifati DM, Angelini C. Long-term cyclosporine treatment in a group of \nsevere myasthenia gravis patients. J Neurol. 1997;244(9):542–547.\n 32. Lavrnic D, Vujic A, Rakocevic-Stojanovic V , et  al. Cyclosporine in \nthe treatment of myasthenia gravis. Acta Neurol Scand. 2005;111(4): \n247–252.\n 33. Tindall RSA, Rollins JA, Phillips JT, Greenlee RG, Wells L, \nBelendiuk G. Preliminary results of a double-blind, randomized, placebo- controlled trial of cyclosporine in myasthenia gravis. N Engl \nJ Med. 1987;316(12):719–724.\nPowered by TCPDF (www.tcpdf.org)\nTherapeutics and Clinical Risk Management 2011:7submit your manuscript | www.dovepress.co m\nDovepress Dovepress\n321Treatments in myasthenia gravis\n 34. Tindall RS, Phillips JT, Rollins JA, Wells L, Hall K. A clinical \n therapeutic trial of cyclosporine in myasthenia gravis. Ann N Y Acad \nSci. 1993;681:539–551.\n 35. Perez MC, Buot WL, Mercado-Danguilan C, Bababaldo ZG, \nRenales LD. Stable remissions in myasthenia gravis. Neurology. 1981; \n31(1):32–37.\n 36. De Feo LG, Schottlender J, Martelli NA, Molfino NA. Use of \nintravenous pulsed cyclophosphamide in severe, generalized myasthenia gravis. Muscle Nerve. 2002;26(1):31–36.\n 37. Cos L, Mankodi AK, Tawil R, Thornton CA. Mycophenolate mofetil \n(MyM) is safe and well tolerated in myasthenia gravis (MG).  Neurology.  \n2000;54(Suppl 3):A137.\n 38. Ciafaloni E, Massey JM, Tucker-Lipscomb B, Sanders DB. \n Mycophenolate mofetil for myasthenia gravis: an open-label pilot study. \nNeurology. 2001;56(1):97–99.\n 39. Chaudhry V , Cornblath DR, Griffin JW , O’Brien R, Drachman DB. \nMycophenolate mofetil: a safe and promising immunosuppressant in neuromuscular diseases. Neurology. 2001;56(1):94–96.\n 40. Meriggioli MN, Ciafaloni E, Al-Hayk KA, et  al. Mycophenolate mofetil \nfor myasthenia gravis: an analysis of efficacy, safety, and tolerability. \nNeurology. 2003;61(10):1438–1440.\n 41. Hehir MK, Burns TM, Alpers J, Conaway MR, Sawa M, Sanders DB. \nMycophenolate mofetil in AChR-antibody-positive myasthenia gravis: outcomes in 102 patients. Muscle Nerve. 2010;41(5):593–598.\n 42. Sanders DB, Hart IK, Mantegazza R, et al. An international, phase III, \nrandomized trial of mycophenolate mofetil in myasthenia gravis. \n Neurology. 2008;71(6):400–406.\n 43. Muscle Study Group. A trial of mycophenolate mofetil with prednisone \nas initial immunotherapy in myasthenia gravis. Neurology. 2008;71(6): \n394–399.\n 44. Sanders DB, Siddiqi ZA. Lessons from two trials of mycophenolate \nmofetil in myasthenia gravis. Ann N Y Acad Sci. 2008;1132:249–253.\n 45. Phan C, Sanders DB, Siddiqi ZA. Mycophenolate mofetil in myasthenia \ngravis: the unanswered question. Expert Opin Pharmacother. 2008; \n9(14):2545–2551.\n 46. Zebardast N, Patwa HS, Novella SP , Goldstein JM. Rituximab in the \nmanagement of refractory myasthenia gravis. Muscle Nerve. 2010; \n41(3):375–378.\n 47. Lindberg C, Bokawera M. Rituximab for severe myasthenia \ngravis –  experience from five patients. Acta Neurol Scand. 2010;122(4): \n225–228.\n 48. Maddison P , McConville J, Farrugia ME, et al. The use of rituximab in \nmyasthenia gravis and Lambert-Eaton myasthenic syndrome. J Neurol \nNeurosurg Psychiatry. 2011. In press.', 'coupled with a recombinant antigen to remove anti-acetylcholine receptor antibodies in abnormal serum. J Immunol Methods. 2005; \n303(1–2):142–147.\n 125. Zisimopoulou P , Lagoumintzis G, Poulas K, Tzartos S. Antigen-specific \napheresis of human anti-acetylcholine receptor autoantibodies from myasthenia gravis patients’ sera using Escherichia coli-expressed \nreceptor domains. J Neuroimmunol. 2008;200(1–2):133–141.\nPowered by TCPDF (www.tcpdf.org)']</t>
+          <t>['contractility of skeletal muscle. FASEB J. 19, 1184–1186. doi: 10.1096/fj.04-\n3333fje\nSemsarian, C., Wu, M. J., Ju, Y. K., Marciniec, T., Y eoh, T., Allen, D.\nG., et al. (1999). Skeletal muscle hypertrophy is mediated by a Ca2+-\ndependent calcineurin signalling pathway. Nature 400, 576–581. doi: 10.1038/\n23054\nTavi, P ., and Westerblad, H. (2011). The role of in vivo Ca2+signals acting on\nCa2+-calmodulin-dependent proteins for skeletal muscle plasticity. J. Physiol.\n589, 5021–5031. doi: 10.1113/jphysiol.2011.212860\nThompson, R. J., Jackson, M. F., Olah, M. E., Rungta, R. L., Hines, D. J.,\nBeazely, M. A., et al. (2008). Activation of pannexin-1 hemichannels aug-ments aberrant bursting in the hippocampus. Science 322, 1555–1559. doi:\n10.1126/science.1165209\nVanden Abeele, F., Bidaux, G., Gordienko, D., Beck, B., Panchin, Y. V ., Baranova, A.\nV ., et al. (2006). Functional implications of calcium permeability of the chan-\nnel formed by pannexin 1. J. Cell Biol. 174, 535–546. doi: 10.1083/jcb.2006\n01115\nWang, J., and Dahl, G. (2010). SCAM analysis of Panx1 suggests a peculiar pore\nstructure. J. Gen. Physiol. 136, 515–527. doi: 10.1085/jgp.201010440\nWang, J., Jackson, D. G., and Dahl, G. (2013). The food dye FD&amp;C Blue No. 1\nis a selective inhibitor of the ATP release channel Panx1. J. Gen. Physiol. 141,\n649-656. doi: 10.1085/jgp.201310966\nwww.frontiersin.org April 2014 | Volume 5 | Article 139 |5\nCea et al. Panx1 in skeletal muscles\nWoehrle, T., Yip, L., Manohar, M., Sumi, Y., Y ao, Y., Chen, Y., et al. (2010).\nHypertonic stress regulates T cell function via pannexin-1 hemichannels and\nP2X receptors. J. Leukoc. Biol. 88, 1181–1189. doi: 10.1189/jlb.0410211\nZhi, G., Ryder, J. W., Huang, J., Ding, P ., Chen, Y., Zhao, Y., et al. (2005). Myosin\nlight chain kinase and myosin phosphorylation effect frequency-dependent\npotentiation of skeletal muscle contraction. Proc. Natl. Acad. Sci. U.S.A. 102,\n17519–17524. doi: 10.1073/pnas.0506846102\nConﬂict of Interest Statement: The authors declare that the research was con-\nducted in the absence of any commercial or ﬁnancial relationships that could be\nconstrued as a potential conﬂict of interest.Received: 14 January 2014; accepted: 21 March 2014; published online: 11 April 2014.\nCitation: Cea LA, Riquelme MA, Vargas AA, Urrutia C and Sáez JC (2014) Pannexin\n1 channels in skeletal muscles. Front. Physiol. 5:139. doi: 10.3389/fphys.2014.00139\nThis article was submitted to Membrane Physiology and Membrane Biophysics, a\nsection of the journal Frontiers in Physiology.\nCopyright © 2014 Cea, Riquelme, Vargas, Urrutia and Sáez. This is an open-access\narticle distributed under the terms of the Creative Commons Attribution License\n(CC BY). The use, distribution or reproduction in other forums is permitted, provided\nthe original author(s) or licensor are credited and that the original publication in this\njournal is cited, in accordance with accepted academic practice. No use, distribution or\nreproduction is permitted which does not comply with these terms.\nFrontiers in Physiology | Membrane Physiology and Membrane Biophysics April 2014 | Volume 5 | Article 139 |6', 'SHORT REPORT\nNovel POLG mutations in progressive external\nophthalmoplegia mimicking mitochondrial\nneurogastrointestinal encephalomyopathy\nGert Van Goethem*,1,2, Marianne Schwartz3, Ann Lo ¨fgren2, Bart Dermaut2,\nChristine Van Broeckhoven2and John Vissing4\n1Neuromuscular Reference Center and Department of Neurology, University Hospital of Antwerp (UZA), Antwerpen,\nBelgium;2Department of Molecular Genetics, Flanders Interuniversity Institute for Biotechnology (VIB8), Born-Bunge\nFoundation (BBS), University of Antwerp (UA), Antwerpen, Belgium;3Department of Clinical Genetics, National\nUniversity Hospital, Rigshospitalet, Copenhagen, Denmark;4Department of Neurology and the Copenhagen Muscle\nResearch Center, National University Hospital, Rigshospitalet, Copenhagen, Denmark\nAutosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with\nmultiple mitochondrial DNA deletions and can be caused by missense mutations in POLG , the gene\nencoding the mitochondrial DNA polymerase gamma. Mitochondrial neurogastrointestinal\nencephalomyopathy (MNGIE) is another autosomal recessive disorder associated with PEO and multiple\ndeletions of mitochondrial DNA in skeletal muscle. In several patients this disorder is caused by loss of\nfunction mutations in the gene encoding thymidine phosphorylase ( TP). We report a recessive family with\nfeatures of MNGIE but no leukoencephalopathy in which two patients carry three missense mutations in\nPOLG , of which two are novel mutations (N846S and P587L). The third mutation was previously reported as\na recessive POLG mutation (T251I). This finding indicates the need for POLG sequencing in patients with\nfeatures of MNGIE without TPmutations.\nEuropean Journal of Human Genetics (2003) 11,547–549. doi:10.1038/sj.ejhg.5201002\nKeywords: MNGIE; Multiple mtDNA deletions; POLG ; PEO\nProgressive external ophthalmoplegia (PEO) is a common\nsign in mitochondrial disorders and often co-occurs with\nother variable disease features. One form of PEO is\nassociated with multiple deletions of mitochondrial DNA\n(mtDNA) in skeletal muscle.1These mtDNA deletions are\nsecondary to an inherited disorder of mtDNA maintenance\ncaused by a defect in a nuclear gene. In recent years, defects\nin different nuclear genes have been identified that\npredispose to both dominant and recessive forms of PEO\nassociated with multiple mtDNA deletions. Dominant PEOcan be caused by mutations in the genes encoding the\nheart/skeletal muscle isoform of the adenine nucleotide\ntranslocator ( ANT1 ),2the novel mitochondrial protein\nTwinkle ( C10orf2 )3and the mtDNA polymerase gamma\n(POLG ).4Autosomal recessive PEO can be caused by\nmutations in POLG .4–6So far mutations in the gene\nencoding thymidine phosphorylase ( TP) have been exclu-\nsively found in patients with mitochondrial neurogastroin-\ntestinal encephalomyopathy (MNGIE).7MNGIE patients\ntypically have severe gastrointestinal manifestations in-\ncluding recurrent vomiting and intestinal pseudo-obstruc-\ntion, peripheral neuropathy, ophthalmoplegia, ptosis and\ncachexia. Various laboratory findings are reported, includ-\ning leukoencephalopathy on brain MRI.8Here, we report\nthe finding of recessive missense mutations in POLG in two\nsisters with a clinical phenotype undistinguishable from\nMNGIE.Received 24 December 2002; revised 26 February 2003; accepted 27\nFebruary 2003*Correspondence: Dr G Van Goethem, Department of Molecular Genetics\n(VIB8), Born-Bunge Foundation (BBS), University of Antwerp (UA),\nUniversiteitsplein 1, B-2610 Antwerpen, Belgium. Tel: +32 3 8202307;\nFax: +32 3 8202541;\nE-mail: vgoethge@uia.ua.ac.be\nEuropean Journal of Human Genetics (2003) 11, 547–549\n&amp;2003 Nature Publishing Group All rights reserved 1018-4813/03 $25.00\nwww.nature.com/ejhg\nThe detailed clinical and laboratory features were\ndescribed elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,', 'P a n x 1d o e sn o th a v ep u t a t i v eC a2+biding sites, it possesses\nmultiple phosphorylation consensus sites in the C-terminaltail to several serine and threonine kinases ( Penuela et al.,\n2007; Riquelme et al., 2013 ). A possible mechanism of acti-\nvation of Panx1 channels that involves phosphorylation hasbeen recently suggested. During repetitive skeletal muscle con-traction, the Panx1 channel activity increases and the stateof phosphorylation of Panx1 Ser and Thr residues is alsoincreased ( Riquelme et al., 2013 ). In contrast, phosphorylation\nof Tyr residues in Panx1 has not been detected yet ( Iglesias\net al., 2008; Riquelme et al., 2013 ). A protein phosphorylation-\ndependent activation could be followed by inactivation via aphosphoprotein phosphatase or by phosphorylation of a differ-ent amino acid residue by another protein kinase with less Ca\n2+\nafﬁnity, followed by complete dephosphorylation via a protein\nphosphatase.\nAn alternative mechanism of Panx1 channel activation in\nskeletal muscle could be a direct protein-protein dependentmechanism (Panx1 channel/dihydropyridine receptor) mediatedby conformational changes of voltage activated dihydropyridinereceptors induced by depolarizing membrane potentials. In sup-port of this view it is possible to say that electrical stimulationinduces ATP release and uptake of Etd\n+and ﬂuorescent glucose\nderivatives in myoﬁbers, indicating opening of Panx1 channels(Riquelme et al., 2013 ). Also, myotubes lacking the Cav1.1- α1\nsubunit released almost no ATP upon electrical stimulation, sug-gesting that Cav1.1 plays a critical role in this process ( Jorquera\net al., 2013 ).\nROLE OF Panx1 BASED CHANNELS IN NORMAL SKELETAL\nMUSCLES\nPOSSIBLE ROLE OF Panx1 CHANNELS IN MUSCULAR ONTOGENY\nSkeletal muscles develop through a process partially coordinated\nby extracellular signaling. The coordinate response of cell groupsincludes the myogenic commitment of mesodermal pluripo-tent cells, myoblast alignment and fusion. In mice, this processrequires the presence of Cx43 expression and functional gap junc-tion channels ( Kalderon et al., 1977; Proulx et al., 1997; Araya\net al., 2003 ). In rats, these channels disappear at about 1 week\npostnatal age when skeletal muscles become innervated ( Cea\net al., 2012 ).\nThe acquisition of myogenic commitment requires increase of\n[Ca\n2+]i, and activation of calcineurin, a Ca2+-dependent protein\nphosphatase that induces expression of the transcription factormyf-5 ( Friday and Pavlath, 2001 ). Increases in [Ca\n2+]icould be\ninduced by activation of P2 receptors with extracellular ATP/ADP .In addition, activation of P2X receptors 2, 4 or 7 increases the cellmembrane permeability to small molecules, including Lucifer yel-low, Etd\n+and YO-PRO-1, in diverse cell types such as myoblasts\nand macrophages ( North, 2002; Araya et al., 2005; Pelegrin and\nSurprenant, 2006 ). However, Panx1 has been proposed to mediate\nthe plasma membrane permeabilization to dyes after activation ofP2X/Y receptors ( Pelegrin and Surprenant, 2006; Locovei et al.,\n2006, 2007 ).\nFrontiers in Physiology | Membrane Physiology and Membrane Biophysics April 2014 | Volume 5 | Article 139 |2\nCea et al. Panx1 in skeletal muscles\nTreatment with a concentration of β-glycyrrhetinic acid that\nblocks connnexin-based channels (gap junction channels andhemichannels) and Panx1 channels ( Bruzzone et al., 2005 )p r e -\nvents the expression of myogenin and MRF4, two transcrip-tion factors that promote myogenesis and myotubes formation(Proulx et al., 1997 ). However, treatment with octanol, blocker\nof Cx-based channels but not Panx1 channels ( Bruzzone et al.,\n2005; Pelegrin and Surprenant, 2006 ), does not block myogenesis\nas evaluated by the expression of the pro-myogenic transcriptionfactor Myf-5 ( Proulx et al., 1997 ). Thus, the presence of functional\nPanx1 channels might be enough to promote commitment andmyogenesis in vitro , and probably Cx hemichannels and/or other\nCa', 'Cea et al. Panx1 in skeletal muscles\nBruzzone, R., Barbe, M. T., Jakob, N. J., and Monyer, H. (2005). Pharmacological\nproperties of homomeric and heteromeric pannexin hemichannels expressed\nin xenopus oocytes. J. Neurochem . 92, 1033–1043. doi: 10.1111/j.1471-\n4159.2004.02947.x\nBruzzone, R., Hormuzdi, S. G., Barbe, M. T., Herb, A., and Monyer, H.\n(2003). Pannexins, a family of gap junction proteins expressed in brain.\nProc. Natl. Acad. Sci. U.S.A . 100, 13644–13649. doi: 10.1073/pnas.22334\n64100\nBuvinic, S., Almarza, G., Bustamante, M., Casas, M., López, J., Riquelme, M.,\net al. (2009). ATP released by electrical stimuli elicits calcium transients and\ngene expression in skeletal muscle. J. Biol. Chem. 284, 34490–34505. doi:\n10.1074/jbc.M109.057315\nCarrasco, M. A., Riveros, N., Ríos, J., Müller, M., T orres, F., Pineda, J., et al. (2003).\nDepolarization-induced slow calcium transients activate early genes in skeletal\nmuscle cells. A m .J .P h y s i o l .C e l lP h y s i o l . 284, C1438–C1447. doi: 10.1152/ajpcell.\n00117.2002\nCea, L. A., Cisterna, B. A., Puebla, C., Frank, M., Figueroa, X. F.,\nCardozo, C., et al. (2013). De novo expression of connexin hemichan-\nnels in denervated fast skeletal muscles leads to atrophy. Proc.\nNatl. Acad. Sci. U.S.A. 110, 16229–16234. doi: 10.1073/pnas.13123\n31110\nCea, L. A., Riquelme, M. A., Cisterna, B. A., Puebla, C., Vega, J. L., Rovegno, M.,\net al. (2012). Connexin- and pannexin-based channels in normal skeletal mus-\ncles and their possible role in muscle atrophy. J. Membr. Biol. 245, 423–436. doi:\n10.1007/s00232-012-9485-8\nDahl, G., and Keane, R. W. (2012). Pannexin: from discovery to bedside\nin 11±4 years? Brain Res. 1487, 150–159. doi: 10.1016/j.brainres.2012.\n04.058\nD’Hondt, C., Iyyathurai, J., Vinken, M., Rogiers, V ., Leybaert, L., Himpens, B.,\net al. (2013). Regulation of connexin- and pannexin-based channels by post-translational modiﬁcations. Biol. Cell. 10, 373–398. doi: 10.1111/boc.2012\n00096\nD’Hondt, C., Ponsaerts, R., De Smedt, H., Bultynck, G., and Himpens,\nB. (2009). Pannexins, distant relatives of the connexin family with spe-\nciﬁc cellular functions? Bioessays 31, 953–974. doi: 10.1002/bies.2008\n00236\nEltit, J. M., García, A. A., Hidalgo, J., Liberona, J. L., Chiong, M., Lavandero, S.,\net al. (2006). Membrane electrical activity elicits inositol 1,4,5-trisphosphate-\ndependent slow Ca\n2+signals through a gbetagamma/phosphatidylinositol 3-\nkinase gamma pathway in skeletal myotubes. J. Biol. Chem . 281, 12143–12154.\ndoi: 10.1074/jbc.M511218200\nFriday, B. B., and Pavlath, G. K. (2001). A calcineurin- and NFAT-dependent path-\nway regulates Myf5 gene expression in skeletal muscle reserve cells. J. Cell Sci.\n114, 303–310.\nIglesias, R., Locovei, S., Roque, A., Alberto, A. P ., Dahl, G., Spray, D. C.,\net al. (2008). P2X7 receptor-Pannexin1 complex: pharmacology and signal-\ning. A m .J .P h y s i o l .C e l lP h y s i o l . 25, C752–C760. doi: 10.1152/ajpcell.002\n28.2008\nIglesias, R., Spray, D. C., and Scemes, E. (2009). Meﬂoquine blockade of Pannexin1\ncurrents: resolution of a conﬂict. Cell Commun. Adhes . 16, 131–137. doi:\n10.3109/15419061003642618\nJaimovich, E., and Carrasco, M. A. (2002). IP 3dependent Ca2+signals in muscle\ncells are involved in regulation of gene expression. Biol. Res. 35, 195–202. doi:\n10.4067/S0716-97602002000200010\nJorquera, G., Altamirano, F., Contreras-Ferrat, A., Almarza, G., Buvinic, S.,\nJacquemond, V ., et al. (2013). Cav1.1 controls frequency-dependent events\nregulating adult skeletal muscle plasticity. J. Cell Sci. 126, 1189–1198. doi:\n10.1242/jcs.116855\nKalderon, N., Epstein, M. L., and Gilula, N. B. (1977). Cell-to-cell communication\nand myogenesis. J. Cell Biol . 75, 788–806. doi: 10.1083/jcb.75.3.788\nKienitz, M. C., Bender, K., Dermietzel, R., Pott, L., and Zoidl, G. (2011). Pannexin\n1 constitutes the large conductance cation channel of cardiac myocytes. J. Biol.\nChem. 286, 290–298. doi: 10.1074/jbc.M110.163477', 'HYPOTHESIS AND THEORY ARTICLE\npublished: 11 April 2014\ndoi: 10.3389/fphys.2014.00139\nPannexin 1 channels in skeletal muscles\nLuis A. Cea1,2*, Manuel A. Riquelme3, Anibal A. Vargas1,2, Carolina Urrutia1and Juan C. Sáez1,2*\n1Departamento de Fisiología, Pontiﬁcia Universidad Católica de Chile, Santiago, Chile\n2Centro Interdisciplinario de Neurociencias de Valparaíso, Universidad de Valparaíso, Valparaíso, Chile\n3Department of Biochemistry, University of Texas Health Science Center, San Antonio, TX, USA\nEdited by:\nMauricio Antonio Retamal,\nUniversidad del Desarrollo, Chile\nReviewed by:\nP . Bryant Chase, Florida State\nUniversity, USA\nJanos Peti-Peterdi, University of\nSouthern California, USA\nCharles P . Lai, Massachusetts\nGeneral Hospital, Harvard Medical\nSchool, USA\n*Correspondence:\nLuis A. Cea and Juan C. Sáez,\nDepartamento de Fisiología,\nPontiﬁcia Universidad Católica de\nChile, Alameda 340, Santiago\n6513677 , Chile\ne-mail: lacea@uc.cl; jsaez@bio.puc.clNormal myotubes and adult innervated skeletal myoﬁbers express the glycoprotein\npannexin1 (Panx1). Six of them form a “gap junction hemichannel-like” structure that\nconnects the cytoplasm with the extracellular space; here they will be called Panx1\nchannels. These are poorly selective channels permeable to ions, small metabolic\nsubstrate, and signaling molecules. So far little is known about the role of Panx1 channels\nin muscles but skeletal muscles of Panx1−/−mice do not show an evident phenotype.\nInnervated adult fast and slow skeletal myoﬁbers show Panx1 reactivity in close proximity\nto dihydropyridine receptors in the sarcolemma of T -tubules. These Panx1 channels are\nactivated by electrical stimulation and extracellular ATP . Panx1 channels play a relevant role\nin potentiation of muscle contraction because they allow release of ATP and uptake of\nglucose, two molecules required for this response. In support of this notion, the absence\nof Panx1 abrogates the potentiation of muscle contraction elicited by repetitive electrical\nstimulation, which is reversed by exogenously applied ATP . Phosphorylation of Panx1 Thr\nand Ser residues might be involved in Panx1 channel activation since it is enhanced during\npotentiation of muscle contraction. Under denervation, Panx1 levels are upregulated and\nthis partially explains the reduction in electrochemical gradient, however its absence does\nnot prevent denervation-induced atrophy but prevents the higher oxidative state. Panx1\nalso forms functional channels at the cell surface of myotubes and their functional state\nhas been associated with intracellular Ca2+signals and regulation of myotube plasticity\nevoked by electrical stimulation. We proposed that Panx1 channels participate as ATP\nchannels and help to keep a normal oxidative state in skeletal muscles.\nKeywords: potentiation, sarcolemma leakage, muscular plasticity, phosphorylation, ATP\nPANNEXIN 1 BASED CHANNELS: STRUCTURE AND\nEXPRESSION\nMyotubes ( Buvinic et al., 2009 ) and innervated myoﬁbers ( Cea\net al., 2013; Riquelme et al., 2013 ) express pannexin1 (Panx1).\nPanx genes (PANX) are a small family; three of them have\nbeen cloned from mammals and are called PANX1, PANX2,\nand PANX3. They are orthologs of invertebrate innexins (Inxs)\n(Ambrosi et al., 2010 ), which form gap junction channels allow-\ning the direct cytoplasm communication between adjacent cells\n(Sáez et al., 2003 ). Presently, it has been proposed that gap junc-\ntion channels of chordates have to be formed exclusively by\nconnexins (Cxs) ( Dahl and Keane, 2012 ). Gap junction chan-\nnel formation requires plasma membrane proximity of two cells\nand the docking of two hemichannels (half of a gap junction\nchannel), each one provided by one of two adjacent cells ( Sáez\net al., 2003 ). However, mammalian Panxs and Inxs do not share\nsigniﬁcant gene and protein sequence homology with chordate\nCxs. Nevertheless, Panx channels share some pharmacological\nproperties with Cx-based channels and present some differences']</t>
         </is>
       </c>
     </row>
@@ -849,14 +851,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Based on the context provided, the main mammalian Notch receptor isoforms mentioned are:
+          <t>Based on the context provided, the mammalian Notch receptor family includes the following isoforms:
 1. Notch1
-2. Notch3 
-3. Notch4
-Specifically, the passage states:
-"We demonstrate for the first time that the NOTCH3 ectodomain is able to interact with ectodomains of NOTCH1 and NOTCH4, which are also expressed in the vascular wall."
-This indicates that Notch1, Notch3, and Notch4 are different mammalian Notch receptor isoforms that are expressed in blood vessels. The study focused primarily on Notch3, but showed it can interact with Notch1 and Notch4 ectodomains as well.
-While not explicitly mentioned in this excerpt, Notch2 is also known to be a mammalian Notch receptor isoform, but it was not discussed in the provided context.</t>
+2. Notch2 
+3. Notch3
+4. Notch4
+Specifically, the passage mentions:
+- NOTCH3 protein can form complexes with other NOTCH proteins
+- A7R5 rat aortic smooth muscle cells express Notch1 and Notch3 mRNA, and to a lesser degree, Notch4 transcripts
+- There are experiments examining interactions between NOTCH3 and NOTCH1 or NOTCH4
+While Notch2 is not explicitly mentioned in this excerpt, it is known to be one of the four mammalian Notch receptors. The context focuses primarily on Notch1, Notch3 and Notch4, but does not exclude the existence of Notch2.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -871,7 +875,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['251.\n40. Jia L, Yu G, Zhang Y, Wang MM (2009) Lysosome-dependent degradation of\nNotch3. Int J Biochem Cell Biol 41: 2594–2598.\n41. Small D, Kovalenko D, Soldi R, Mandinova A, Kolev V, et al. (2003) Notch\nactivation suppresses fibroblast growth factor-dependent cellular transformation.\nJ Biol Chem 278: 16405–16413.\n42. Meng H, Zhang X, Hankenson KD, Wang MM (2009) Thrombospondin 2\npotentiates notch3/jagged1 signaling. J Biol Chem 284: 7866–7874.\n43. Wang J, Slunt H, Gonzales V, Fromholt D, Coonfield M, et al. (2003) Copper-\nbinding-site-null SOD1 causes ALS in transgenic mice: aggregates of non-native\nSOD1 delineate a common feature. Hum Mol Genet 12: 2753–2764.\n44. Lindsell CE, Shawber CJ, Boulter J, Weinmaster G (1995) Jagged: a mammalian\nligand that activates Notch1. Cell 80: 909–917.\n45. Hicks C, Johnston SH, diSibio G, Collazo A, Vogt TF, et al. (2000) Fringe\ndifferentially modulates Jagged1 and Delta1 signalling through Notch1 and\nNotch2. Nat Cell Biol 2: 515–520.\n46. Jarriault S, Brou C, Logeat F, Schroeter EH, Kopan R, et al. (1995) Signalling\ndownstream of activated mammalian Notch. Nature 377: 355–358.\n47. Li L, Miano JM, Mercer B, Olson EN (1996) Expression of the SM22alpha\npromoter in transgenic mice provides evidence for distinct transcriptional\nregulatory programs in vascular and visceral smooth muscle cells. J Cell Biol\n132: 849–859.\n48. Doi H, Iso T, Sato H, Yamazaki M, Matsui H, et al. (2006) Jagged1-selective\nnotch signaling induces smooth muscle differentiation via a RBP-Jkappa-\ndependent pathway. J Biol Chem 281: 28555–28564.\n49. Meng H, Zhang X, Lee SJ, Strickland DK, Lawrence DA, et al. (2010) Low\ndensity lipoprotein receptor-related protein-1 (LRP1) regulates thrombospondin-\n2 (TSP2) enhancement of Notch3 signaling. J Biol Chem 285: 23047–23055.\n50. Vooijs M, Schroeter EH, Pan Y, Blandford M, Kopan R (2004) Ectodomain\nshedding and intramembrane cleavage of mammalian Notch proteins is not\nregulated through oligomerization. J Biol Chem 279: 50864–50873.\n51. Sakamoto K, Chao WS, Katsube K, Yamaguchi A (2005) Distinct roles of EGF\nrepeats for the Notch signaling system. Exp Cell Res 302: 281–291.\n52. Rand MD, Grimm LM, Artavanis-Tsakonas S, Patriub V, Blacklow SC, et al.\n(2000) Calcium depletion dissociates and activates heterodimeric notch\nreceptors. Mol Cell Biol 20: 1825–1835.\n53. Villa N, Walker L, Lindsell CE, Gasson J, Iruela-Arispe ML, et al. (2001)\nVascular expression of Notch pathway receptors and ligands is restricted to\narterial vessels. Mech Dev 108: 161–164.\n54. Reaume AG, Conlon RA, Zirngibl R, Yamaguchi TP, Rossant J (1992)\nExpression analysis of a Notch homologue in the mouse embryo. Dev Biol 154:\n377–387.\n55. Del Amo FF, Smith DE, Swiatek PJ, Gendron-Maguire M, Greenspan RJ, et al.\n(1992) Expression pattern of Motch, a mouse homolog of Drosophila Notch,\nsuggests an important role in early postimplantation mouse development.Development 115: 737–744.\n56. Uyttendaele H, Marazzi G, Wu G, Yan Q, Sassoon D, et al. (1996) Notch4/int-\n3, a mammary proto-oncogene, is an endothelial cell-specific mammalian Notchgene. Development 122: 2251–2259.\n57. Karlstrom H, Beatus P, Dannaeus K, Chapman G, Lendahl U, et al. (2002) A\nCADASIL-mutated Notch 3 receptor exhibits impaired intracellular traffickingand maturation but normal ligand-induced signaling. Proc Natl Acad Sci U S A\n99: 17119–17124.\n58. Joutel A, Monet-Lepretre M, Gosele C, Baron-Menguy C, Hammes A, et al.\n(2010) Cerebrovascular dysfunction and microcirculation rarefaction precede\nwhite matter lesions in a mouse genetic model of cerebral ischemic small vessel\ndisease. J Clin Invest 120: 433–45.\n59. Takahashi K, Adachi K, Yoshizaki K, Kunimoto S, Kalaria RN, et al. (2010)\nMutations in NOTCH3 cause the formation and retention of aggregates in the\nendoplasmic reticulum, leading to impaired cell proliferation. Hum Mol Genet19: 79–89.Cellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 12 September 2012 | Volume 7 | Issue 9 | e44964', 'Tissues from patients with CADASIL display damage to smooth\nmuscle cells of small arteries and arterioles, characterized by cell-cell separation and cell loss, accumulation of granular osmiophilicmaterial (GOM) around cells, fibrosis, and marked accumulationof NOTCH3 protein in the media [17,18,19,20]. In spite of thisdetailed description of pathology, a comprehensive view of themolecular and cellular changes induced by NOTCH3 excess hasyet to emerge.\nNotch signal transduction plays an important role in the\ndevelopment and homeostasis of blood vessels. Notch or Notchligand knockout and activated Notch transgenic mice display\nmarked vascular phenotypes, ranging from subtle arterio-venousspecification disorders to severe angiogenic failure[21,22,23,24,25,26,27,28]. Notch also plays a role in homeostaticcontrol and responses of the mature vasculature to disease[29,30,31,32]. Although a majority of work has focused on Notch\nin endothelial cells, smooth muscle Notch has also been shown to\nregulate cell growth, death, and differentiation [33,34,35]. Theprofound effect of the Notch system on blood vessels suggests thatin CADASIL, interference with normal NOTCH signaling bymutant NOTCH3 could play a major mechanistic role. Recently,NOTCH3 protein has been shown to form multiproteincomplexes [36,37]; CADASIL mutations in NOTCH3, moreover,have been shown to slow the degradation of NOTCH3 [38].These studies suggest that smooth muscle cells in CADASILaccumulate NOTCH3 due to mutations in the protein andimplicate protein accumulation as a component of the pathologicalprocess. However, to date, the cellular effects of NOTCH3overexpression have not been addressed. The purpose of this studywas to investigate whether excessive NOTCH3 is capable offorming complexes with other NOTCH proteins. We discoveredthat NOTCH3 could bind tightly to multiple vascular NOTCH\nPLOS ONE | www.plosone.org 1 September 2012 | Volume 7 | Issue 9 | e44964\nectodomains and strongly inhibited Notch function. Since\nNOTCH regulates crucial smooth muscle genes, we tested\nwhether the overexpression of NOTCH3 affects the regulation\nof genes known to regulate smooth muscle homeostasis.\nMaterials and Methods\nMaterials\nCell culture products were obtained from Invitrogen (Carlsbad,\nCA) unless noted; puromycin was purchased from Alexis (San\nDiego, CA). All other chemicals were obtained from Sigma (St.Louis, MO) unless indicated otherwise.\nConstruction of cDNA Clones Encoding Human NOTCH3\nPlease see Figure 1 for representation of constructs. We\nconstructed a clone for NOTCH3 in the expression vectorpCMV-Sport6 (Invitrogen, Carlsbad, CA) by using publiclyavailable cDNA clones and RT-PCR from human brain RNA\n[39]. We created two mutants of NOTCH3 (R90C and C49Y;\nmutation sites represented by black bars) by PCR basedmutagenesis [40]. Epitope tagged ectodomain fragments werecreated by insertion of oligonucleotides encoding the appropriatetags into the NotI site of the human NOTCH3 cDNA, resulting in\nan open reading frame that corresponds to the first 33 EGF-like\nrepeats of the molecule. NOTCH3 -luciferase fusions were created\nby splicing luciferase from pGL3 (Promega) into the same internalNot1 site and a 3 9XbaI site just beyond the end of the coding\nsequence. The 5 9fragment of full length mouse NOTCH4 cDNA (a\ngift of Jan Kitajewski) spanning base pairs 1–4309 was cloned inframe between the EcoRI and NotI restriction sites of the\npcDNA4V5zeo vector (Invitrogen) to obtain a C-terminal V5-\ntagged NOTCH4 extracellular domain.\nCell Culture\n293A (Qbiogene, Irvine, CA), A7R5 rat aortic smooth muscle,\nand H460 human lung cancer cells were grown in DMEMsupplemented with 10% FBS. 293A cell lines were generated bycotransfection using Lipofectamine 2000 (Invitrogen, Carlsbad,CA) according to the manufacturer’s protocol. DNA for transfec-\ntions included a 1:20 mixture of a puromycin resistance plasmid', 'ectodomain of the Notch3 receptor accumulates within the cerebrovasculature\nof CADASIL patients. J Clin Invest 105: 597–605.\n21. Iso T, Hamamori Y, Kedes L (2003) Notch signaling in vascular development.\nArterioscler Thromb Vasc Biol 23: 543–553.\n22. Xue Y GX, Lindsell CE, Norton CR, Chang B, Hicks C, Gendron-Maguire M,\nRand EB, Weinmaster G, Gridley T (1999) Embryonic lethality and vascular\ndefects in mice lacking the Notch ligand Jagged1. Hum Mol Genet 1999: 723–\n730.\n23. Gale NW, Dominguez MG, Noguera I, Pan L, Hughes V, et al. (2004)\nHaploinsufficiency of delta-like 4 ligand results in embryonic lethality due tomajor defects in arterial and vascular development. Proc Natl Acad Sci U S A\n101: 15949–15954.\n24. Krebs LT, Xue Y, Norton CR, Shutter JR, Maguire M, et al. (2000) Notch\nsignaling is essential for vascular morphogenesis in mice. Genes Dev 14: 1343–\n1352.\n25. Limbourg FP, Takeshita K, Radtke F, Bronson RT, Chin MT, et al. (2005)\nEssential role of endothelial Notch1 in angiogenesis. Circulation 111: 1826–1832.\n26. McCright B, Gao X, Shen L, Lozier J, Lan Y, et al. (2001) Defects in\ndevelopment of the kidney, heart and eye vasculature in mice homozygous for a\nhypomorphic Notch2 mutation. Development 128: 491–502.\n27. Domenga V, Fardoux P, Lacombe P, Monet M, Maciazek J, et al. (2004) Notch3\nis required for arterial identity and maturation of vascular smooth muscle cells.\nGenes Dev 18: 2730–2735.\n28. High FA, Zhang M, Proweller A, Tu L, Parmacek MS, et al. (2007) An essential\nrole for Notch in neural crest during cardiovascular development and smooth\nmuscle differentiation. J Clin Invest 117: 353–363.\n29. Ridgway J, Zhang G, Wu Y, Stawicki S, Liang WC, et al. (2006) Inhibition of\nDll4 signalling inhibits tumour growth by deregulating angiogenesis. Nature 444:\n1083–1087.\n30. Hellstrom M, Phng LK, Hofmann JJ, Wallgard E, Coultas L, et al. (2007) Dll4\nsignalling through Notch1 regulates formation of tip cells during angiogenesis.Nature 445: 776–780.\n31. Noguera-Troise I, Daly C, Papadopoulos NJ, Coetzee S, Boland P, et al. (2006)\nBlockade of Dll4 inhibits tumour growth by promoting non-productive\nangiogenesis. Nature 444: 1032–1037.\n32. Lindner V, Booth C, Prudovsky I, Small D, Maciag T, et al. (2001) Members of\nthe Jagged/Notch gene families are expressed in injured arteries and regulate\ncell phenotype via alterations in cell matrix and cell-cell interaction. Am J Pathol159: 875–883.33. Sweeney C, Morrow D, Birney YA, Coyle S, Hennessy C, et al. (2004) Notch 1\nand 3 receptor signaling modulates vascular smooth muscle cell growth,\napoptosis, and migration via a CBF-1/RBP-Jk dependent pathway. Faseb J 18:1421–1423.\n34. Liu H, Kennard S, Lilly B (2009) NOTCH3 expression is induced in mural cells\nthrough an autoregulatory loop that requires endothelial-expressed JAGGED1.\nCirc Res 104: 466–475.\n35. Tang Y, Urs S, Boucher J, Bernaiche T, Venkatesh D, et al. (2010) Notch and\ntransforming growth factor-beta (TGFbeta) signaling pathways cooperatively\nregulate vascular smooth muscle cell differentiation. J Biol Chem 285: 17556–\n17563.\n36. Opherk C, Duering M, Peters N, Karpinska A, Rosner S, et al. (2009)\nCADASIL mutations enhance spontaneous multimerization of NOTCH3. Hum\nMol Genet 18: 2761–2767.\n37. Duering M, Karpinska A, Rosner S, Hopfner F, Zechmeister M, et al. (2011)\nCo-aggregate formation of CADASIL-mutant NOTCH3: a single-particleanalysis. Hum Mol Genet.\n38. Takahashi K, Adachi K, Yoshizaki K, Kunimoto S, Kalaria RN, et al. (2010)\nMutations in NOTCH3 cause the formation and retention of aggregates in theendoplasmic reticulum, leading to impaired cell proliferation. Hum Mol Genet\n19: 79–89.\n39. Zhang Y, Jia L, Lee SJ, Wang MM (2007) Conserved signal peptide of Notch3\ninhibits interaction with proteasome. Biochem Biophys Res Commun 355: 245–\n251.\n40. Jia L, Yu G, Zhang Y, Wang MM (2009) Lysosome-dependent degradation of\nNotch3. Int J Biochem Cell Biol 41: 2594–2598.', 'PLOS ONE | www.plosone.org 4 September 2012 | Volume 7 | Issue 9 | e44964\nand 5C). Specifically, decay of the R90C ectodomain was\nsignificantly impaired compared to wildtype, while C49Yectodomain displayed a less severe reduction in clearance. Whenthe wildtype and R90C mutant proteins were cotransfected incells, the overall clearance of NOTCH3 ectodomains was reducedand displayed an intermediate between wildtype and mutant rates.When C49Y protein was cotransfected with wildtype NOTCH3,the clearance of NOTCH3 proteins adopted the slower clearancerate of the C49Y protein. These results suggest that the C49Yprotein (but not the R90C protein) can dominantly influence theclearance rate of coexpressed NOTCH3.\nNOTCH3 Exerts a Dominant Negative Effects on Notch\nSignaling\nSince both WT and mutant NOTCH3 dimerize with other\nNOTCH proteins and CADASIL mutations in NOTCH causeddecreased solubility and clearance of NOTCH3 ectodomains, wehypothesized that increased NOTCH3 could affect Notchsignaling. We tested how overexpressed full-length NOTCH3affects Notch signaling by utilizing a well-established coculturesystem to measure the effects of expression of wildtype or mutantfull-length NOTCH3 on Notch regulated smooth muscle genes.\nA7R5 rat aortic smooth muscle cells express Notch1 and\nNotch3 mRNA, and, to a lesser degree, Notch4 transcripts (not\nshown). SM-MHC, SMA, SM22, and calponin were allupregulated in A7R5 cells by coculture with ligand producingcells (Figure 6). Transfection with full-length Notch3 (WT ormutant) clearly did not increase the expression of these genes;rather, NOTCH3 transfection inhibited ligand dependent in-\nFigure 3. NOTCH3 ectodomain interacts with both NOTCH1\nand NOTCH4 ectodomains. Interactions between NOTCH3 (WT and\nmutants) with NOTCH1 or NOTCH4 [41] were tested after cotransfectionof plasmid combinations shown. Protein from transfected cells were\nevaluated by immunoblotting (input) and by immunoprecipitation with\nV5 monoclonal antibody followed by immunoblotting (IP:V5). Each ofthe NOTCH3 ectodomain constructs coprecipitated with both V5-tagged NOTCH1 or NOTCH4 proteins, which migrate with apparentmolecular weights of .280 kDa and 180 kDa, respectively. All\nexperiments were performed three times.doi:10.1371/journal.pone.0044964.g003\nFigure 4. Detergent solubility and formation of inclusions of NOTCH3 expressed in cell culture. NOTCH3 complexes containing wildtype\nprotein or mutant proteins were tested for detergent solubility. Total protein from cell lines expressing WT or mutant NOTCH3 were sequentiallyextracted as detailed in methods, using progressively higher strengths of detergents. Cells were grown at low density (A) or in confluent monolayers\n(B). While WT protein was modestly soluble, the mutant proteins were extractable only in higher detergent concentrations. NOTCH3 protein was\ndetected using antisera from Santa Cruz. The control protein tubulin was readily extractable without detergents. Experiments were performed threetimes with consistent results. Cell lines were immunostained with the same antisera or with antibodies from R&amp;D, revealing diffuse cell staining wit h\nfocal accumulations in the perinuclear areas of cells expressing both wildtype and mutant proteins (C). A significant difference in the percentage o f\ncells with perinuclear expression of the protein was notable at low cell density (D) (over 250 cells were counted for each cell line and condition.Results were reproduced three times, and significance was considered p ,0.05.\ndoi:10.1371/journal.pone.0044964.g004Cellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 5 September 2012 | Volume 7 | Issue 9 | e44964\nCellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 6 September 2012 | Volume 7 | Issue 9 | e44964\ncreases in transcript levels in cocultures (rat smooth muscle mRNA', 'ectodomain sequences (NICD; Figure S2).\nIn A7R5 cells (Figure 7B), ligand-stimulated HES-luciferase\nactivity was inhibited by wildtype and mutant full-length\nNOTCH3. There was a trend towards stronger suppression ofNotch responses with expression of mutant NOTCH3 (compared\nto WT), but this did not reach statistical significance. Overall, both\nwildtype and mutant NOTCH3 repressed canonical Notchtranscriptional function in a cell and ligand specific manner.\nThe inhibition of the reporter construct was also seen after\noverexpression of NOTCH3 ectodomain (Figure S3).\nSince levels of critical smooth muscle mRNAs were repressed by\nfull-length NOTCH3 overexpression (Figure 6), we tested whether\ntransfected NOTCH3 inhibits smooth muscle promoters normallytargeted by Notch. In coculture assays, overexpression of all forms\nof full-length NOTCH3 resulted in inhibition of smooth muscle\nactin, smooth muscle myosin heavy chain, and SM22-luciferaseconstructs in A7R5 cells (Figures 7C–E). Although mutant\nNOTCH3 more potently inhibited the activity of the smooth\nmuscle actin promoter (compared to wildtype NOTCH3;Figure 7D), there was no significant difference between the\ninhibitory properties of the wildtype and mutant NOTCH3 acting\non the SM-MHC and SM22 promoters. All ligand-dependentpromoter function was blocked by co-transfection with a DN-\nMAML peptide that has been shown to inhibit Notch signaling\n(not shown). Moreover, mutagenesis of the Notch-responsiveelement from the SM22 promoter construct fully blocked the\ninhibitory function of NOTCH3 overexpression (Figure 7E).\nCo-transfection of NOTCH3 cDNA potentially causes aggre-\ngation of proteins in the intracellular compartment. To test\nwhether secreted NOTCH3 ectodomain is sufficient to block\nNotch signaling, we prepared recombinant NOTCH3 ectodomainproteins purified from stable cell lines to determine their effects in\nNotch signaling. Both wild type and mutant NOTCH3 proteins\nadded at nanomolar concentrations to the culture media werecapable of potently inhibiting Notch signaling in A7R5 cells\n(Figure 8).\nDiscussion\nWe report four novel findings regarding NOTCH3:1) both\nwildtype and mutant NOTCH3 ectodomains form complexes\nwith NOTCH1, 3, and 4 ectodomains via EGF-repeats; 2)CADASIL mutations decrease NOTCH3 detergent solubility; 3)\nCADASIL mutant protein interferes with cellular clearance of\nNOTCH3; 4) accumulated NOTCH3 represses Notch-stimulatedexpression of smooth muscle genes by interfering with promoter\nactivation.\nNOTCH3 Ectodomain Protein Complexes\nThe appearance of GOM and granular NOTCH3 accumula-\ntion in blood vessels strongly suggests that vascular proteinaggregation is a major pathological feature of CADASIL. Other\nstudies [36,38] have examined potential protein interactions\nbetween a number of other CADASIL mutants of NOTCH3(R133C, C185R, C183R, and C455R). Here, we show novel,\nunequivocal evidence that both wildtype and two additional\nmutant NOTCH ectodomains (R90C and C49Y) form stablecomplexes within transfected cells and that the EGF-repeats are\nsufficient for protein complex formation. Importantly, we demon-strate for the first time that the NOTCH3 ectodomain is able to\ninteract with ectodomains of NOTCH1 and NOTCH4, which arealso expressed in the vascular wall. Our data demonstrate that\nNOTCH3 homomultimerization requires expression in the same\ncell, since lysate mixing did not result in multimer formation.Previous experiments have also suggested that NOTCH3 multi-mers form when expressed in cells [36,38].\nThe significance of these protein interactions in CADASIL is\ntwo-fold. First, our interaction studies suggest that accumulatedNOTCH3 could interfere not only with NOTCH3, but also with\nother NOTCH proteins in vessels. Second, the ectodomains of']</t>
+          <t>['ized to initial luciferase content (time 0). The decrease in luciferase\nactivity over time was used to determine the effects of NOTCH3\nmutations on clearance of NOTCH3 ectodomain.\nNotch Signaling Assays\nWe used a cell co-culture system that was similar to previous\nstudies [42,44]. For mRNA expression assays, we transfected\nA7R5 cells transfected (three wells per group) with NOTCH3\ncDNA constructs with ligand expressing L cells expressing Jagged\nor Delta (or L cells without ligand as a control) [45]. After 24\nhours, RNA from each well was prepared from cocultures, reverse\ntranscribed, and quantified by real time PCR using beta-actin as a\ncontrol. The average expression level for each group (n = 3 wells\nper co-culture; normalized to L cell controls) reflects target gene\nregulation by the Notch pathway. Finally, we determined the\naverage levels of gene induction for three independent experi-\nments. Primer sequences were designed to specifically measure\nA7R5 (rat) smooth muscle cDNA (and not mouse cDNA from\nligand producing L cells). Sequences of these primers were:\nSM22:5 9-AAGAATGGCGTGATTCTGAGC-3 959-CTGCCT-\nTCAAGAATTGAGCC-3 9. SMA: 5 9- CAGACACCAGGGAG-\nTGATGGT -3 959CTTTTCCATGTCGTCCCAGT -3 9. Calpo-\nnin: 59-CAGTCAGCAGGGCATGACAG-3 959-AGTCATGCCA-\nGCCTGGCTG-3 9. SM-MHC: 5 9- CCGGCAACGCTACGAGAT -\n3959- AGAAGATTTTGCTCTGCCCA -3 9.\nFor luciferase-based assays, H460 (that express only NOTCH3)\nor A7R5 cells (cells which express multiple Notch receptors) were\ntransiently transfected with an expression clone (vector or\nNOTCH3 construct) in combination with the HES-luciferase\nreporter that reflects canonical NOTCH pathway activation\n[39,46], smooth muscle actin-luciferase (a 2.5 kb promoter\nconstruct), SM22-luciferase [47], or smooth muscle myosin heavy\nchain-luciferase mixed with a renilla luciferase standard. In some\nexperiments, we applied recombinant, purified NOTCH3-Fc\n(1 ug/ml; 3 nM) or human IgG (control) protein to cocultures ofreporter-transfected A7R5 cells (without co-transfection of\nNOTCH3 cDNA) and ligand expressing cells. To generate a\nNotch-insensitive promoter control, we mutated the RBP site at\n2369 (from TTCCCAC to GATATCC; [48]) of the mouse\nSM22-luciferase reporter using PCR. The cells were allowed to\nrecover overnight to enhance expression of the constructs. The\nfollowing day, Notch was stimulated by overlaying Jagged1 or\nDelta1 expressing L cells (or parental L cells as a control) onto the\nNotch expressing monolayer [44,45]. After 18–24 hours, luciferase\nactivity was determined from cell lysates; the ratio of firefly to\nrenilla luciferase represented the activation of the Notch pathway\nin the transfected cell pool. Reporter studies were done in 48 well\nplates, and cells were transfected with 100 ng of reporter luciferase\nconstructs, 1 ng of renilla luciferase control plasmid, and 100 ng of\nexpression constructs (or vector control).\nRecombinant NOTCH3 Protein Purification\nCell lines were prepared that stably expressed human\nNOTCH3 cDNA (corresponding 1,040 amino acids encoding\nthe first 27 EGF-like repeats of NOTCH3; wild type or R90C\nmutant) fused to a myc tag and the Fc domain of murine IgG2 in\npSec-Tag (Invitrogen). High expressing clones were selected by\npuromycin selection and expanded. After expansion, media waschanged to OptiMEM (Invitrogen) overnight and this serum-free\nmedia was collected, frozen, pooled and passed over a protein A\nagarose column to affinity purify the recombinant NOTCH3fusion. Elution of the protein was performed at pH5.0, and the\neluate was immediately neutralized with Tris pH 7.4 and dialyzed\nagainst PBS. The final protein solution was composed of only twobands, a major band (NOTCH3-Fc at approximately 150 kDa)\nand a minor band at 25 kDa (about 20% of the total mass by silver\nstaining). Gel purification and mass spectroscopy of the minorband revealed it to be human IgG heavy chain made by 293 cell\nlines and which copurified with NOTCH3 proteins. To control for', '251.\n40. Jia L, Yu G, Zhang Y, Wang MM (2009) Lysosome-dependent degradation of\nNotch3. Int J Biochem Cell Biol 41: 2594–2598.\n41. Small D, Kovalenko D, Soldi R, Mandinova A, Kolev V, et al. (2003) Notch\nactivation suppresses fibroblast growth factor-dependent cellular transformation.\nJ Biol Chem 278: 16405–16413.\n42. Meng H, Zhang X, Hankenson KD, Wang MM (2009) Thrombospondin 2\npotentiates notch3/jagged1 signaling. J Biol Chem 284: 7866–7874.\n43. Wang J, Slunt H, Gonzales V, Fromholt D, Coonfield M, et al. (2003) Copper-\nbinding-site-null SOD1 causes ALS in transgenic mice: aggregates of non-native\nSOD1 delineate a common feature. Hum Mol Genet 12: 2753–2764.\n44. Lindsell CE, Shawber CJ, Boulter J, Weinmaster G (1995) Jagged: a mammalian\nligand that activates Notch1. Cell 80: 909–917.\n45. Hicks C, Johnston SH, diSibio G, Collazo A, Vogt TF, et al. (2000) Fringe\ndifferentially modulates Jagged1 and Delta1 signalling through Notch1 and\nNotch2. Nat Cell Biol 2: 515–520.\n46. Jarriault S, Brou C, Logeat F, Schroeter EH, Kopan R, et al. (1995) Signalling\ndownstream of activated mammalian Notch. Nature 377: 355–358.\n47. Li L, Miano JM, Mercer B, Olson EN (1996) Expression of the SM22alpha\npromoter in transgenic mice provides evidence for distinct transcriptional\nregulatory programs in vascular and visceral smooth muscle cells. J Cell Biol\n132: 849–859.\n48. Doi H, Iso T, Sato H, Yamazaki M, Matsui H, et al. (2006) Jagged1-selective\nnotch signaling induces smooth muscle differentiation via a RBP-Jkappa-\ndependent pathway. J Biol Chem 281: 28555–28564.\n49. Meng H, Zhang X, Lee SJ, Strickland DK, Lawrence DA, et al. (2010) Low\ndensity lipoprotein receptor-related protein-1 (LRP1) regulates thrombospondin-\n2 (TSP2) enhancement of Notch3 signaling. J Biol Chem 285: 23047–23055.\n50. Vooijs M, Schroeter EH, Pan Y, Blandford M, Kopan R (2004) Ectodomain\nshedding and intramembrane cleavage of mammalian Notch proteins is not\nregulated through oligomerization. J Biol Chem 279: 50864–50873.\n51. Sakamoto K, Chao WS, Katsube K, Yamaguchi A (2005) Distinct roles of EGF\nrepeats for the Notch signaling system. Exp Cell Res 302: 281–291.\n52. Rand MD, Grimm LM, Artavanis-Tsakonas S, Patriub V, Blacklow SC, et al.\n(2000) Calcium depletion dissociates and activates heterodimeric notch\nreceptors. Mol Cell Biol 20: 1825–1835.\n53. Villa N, Walker L, Lindsell CE, Gasson J, Iruela-Arispe ML, et al. (2001)\nVascular expression of Notch pathway receptors and ligands is restricted to\narterial vessels. Mech Dev 108: 161–164.\n54. Reaume AG, Conlon RA, Zirngibl R, Yamaguchi TP, Rossant J (1992)\nExpression analysis of a Notch homologue in the mouse embryo. Dev Biol 154:\n377–387.\n55. Del Amo FF, Smith DE, Swiatek PJ, Gendron-Maguire M, Greenspan RJ, et al.\n(1992) Expression pattern of Motch, a mouse homolog of Drosophila Notch,\nsuggests an important role in early postimplantation mouse development.Development 115: 737–744.\n56. Uyttendaele H, Marazzi G, Wu G, Yan Q, Sassoon D, et al. (1996) Notch4/int-\n3, a mammary proto-oncogene, is an endothelial cell-specific mammalian Notchgene. Development 122: 2251–2259.\n57. Karlstrom H, Beatus P, Dannaeus K, Chapman G, Lendahl U, et al. (2002) A\nCADASIL-mutated Notch 3 receptor exhibits impaired intracellular traffickingand maturation but normal ligand-induced signaling. Proc Natl Acad Sci U S A\n99: 17119–17124.\n58. Joutel A, Monet-Lepretre M, Gosele C, Baron-Menguy C, Hammes A, et al.\n(2010) Cerebrovascular dysfunction and microcirculation rarefaction precede\nwhite matter lesions in a mouse genetic model of cerebral ischemic small vessel\ndisease. J Clin Invest 120: 433–45.\n59. Takahashi K, Adachi K, Yoshizaki K, Kunimoto S, Kalaria RN, et al. (2010)\nMutations in NOTCH3 cause the formation and retention of aggregates in the\nendoplasmic reticulum, leading to impaired cell proliferation. Hum Mol Genet19: 79–89.Cellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 12 September 2012 | Volume 7 | Issue 9 | e44964', 'Tissues from patients with CADASIL display damage to smooth\nmuscle cells of small arteries and arterioles, characterized by cell-cell separation and cell loss, accumulation of granular osmiophilicmaterial (GOM) around cells, fibrosis, and marked accumulationof NOTCH3 protein in the media [17,18,19,20]. In spite of thisdetailed description of pathology, a comprehensive view of themolecular and cellular changes induced by NOTCH3 excess hasyet to emerge.\nNotch signal transduction plays an important role in the\ndevelopment and homeostasis of blood vessels. Notch or Notchligand knockout and activated Notch transgenic mice display\nmarked vascular phenotypes, ranging from subtle arterio-venousspecification disorders to severe angiogenic failure[21,22,23,24,25,26,27,28]. Notch also plays a role in homeostaticcontrol and responses of the mature vasculature to disease[29,30,31,32]. Although a majority of work has focused on Notch\nin endothelial cells, smooth muscle Notch has also been shown to\nregulate cell growth, death, and differentiation [33,34,35]. Theprofound effect of the Notch system on blood vessels suggests thatin CADASIL, interference with normal NOTCH signaling bymutant NOTCH3 could play a major mechanistic role. Recently,NOTCH3 protein has been shown to form multiproteincomplexes [36,37]; CADASIL mutations in NOTCH3, moreover,have been shown to slow the degradation of NOTCH3 [38].These studies suggest that smooth muscle cells in CADASILaccumulate NOTCH3 due to mutations in the protein andimplicate protein accumulation as a component of the pathologicalprocess. However, to date, the cellular effects of NOTCH3overexpression have not been addressed. The purpose of this studywas to investigate whether excessive NOTCH3 is capable offorming complexes with other NOTCH proteins. We discoveredthat NOTCH3 could bind tightly to multiple vascular NOTCH\nPLOS ONE | www.plosone.org 1 September 2012 | Volume 7 | Issue 9 | e44964\nectodomains and strongly inhibited Notch function. Since\nNOTCH regulates crucial smooth muscle genes, we tested\nwhether the overexpression of NOTCH3 affects the regulation\nof genes known to regulate smooth muscle homeostasis.\nMaterials and Methods\nMaterials\nCell culture products were obtained from Invitrogen (Carlsbad,\nCA) unless noted; puromycin was purchased from Alexis (San\nDiego, CA). All other chemicals were obtained from Sigma (St.Louis, MO) unless indicated otherwise.\nConstruction of cDNA Clones Encoding Human NOTCH3\nPlease see Figure 1 for representation of constructs. We\nconstructed a clone for NOTCH3 in the expression vectorpCMV-Sport6 (Invitrogen, Carlsbad, CA) by using publiclyavailable cDNA clones and RT-PCR from human brain RNA\n[39]. We created two mutants of NOTCH3 (R90C and C49Y;\nmutation sites represented by black bars) by PCR basedmutagenesis [40]. Epitope tagged ectodomain fragments werecreated by insertion of oligonucleotides encoding the appropriatetags into the NotI site of the human NOTCH3 cDNA, resulting in\nan open reading frame that corresponds to the first 33 EGF-like\nrepeats of the molecule. NOTCH3 -luciferase fusions were created\nby splicing luciferase from pGL3 (Promega) into the same internalNot1 site and a 3 9XbaI site just beyond the end of the coding\nsequence. The 5 9fragment of full length mouse NOTCH4 cDNA (a\ngift of Jan Kitajewski) spanning base pairs 1–4309 was cloned inframe between the EcoRI and NotI restriction sites of the\npcDNA4V5zeo vector (Invitrogen) to obtain a C-terminal V5-\ntagged NOTCH4 extracellular domain.\nCell Culture\n293A (Qbiogene, Irvine, CA), A7R5 rat aortic smooth muscle,\nand H460 human lung cancer cells were grown in DMEMsupplemented with 10% FBS. 293A cell lines were generated bycotransfection using Lipofectamine 2000 (Invitrogen, Carlsbad,CA) according to the manufacturer’s protocol. DNA for transfec-\ntions included a 1:20 mixture of a puromycin resistance plasmid', 'ectodomain of the Notch3 receptor accumulates within the cerebrovasculature\nof CADASIL patients. J Clin Invest 105: 597–605.\n21. Iso T, Hamamori Y, Kedes L (2003) Notch signaling in vascular development.\nArterioscler Thromb Vasc Biol 23: 543–553.\n22. Xue Y GX, Lindsell CE, Norton CR, Chang B, Hicks C, Gendron-Maguire M,\nRand EB, Weinmaster G, Gridley T (1999) Embryonic lethality and vascular\ndefects in mice lacking the Notch ligand Jagged1. Hum Mol Genet 1999: 723–\n730.\n23. Gale NW, Dominguez MG, Noguera I, Pan L, Hughes V, et al. (2004)\nHaploinsufficiency of delta-like 4 ligand results in embryonic lethality due tomajor defects in arterial and vascular development. Proc Natl Acad Sci U S A\n101: 15949–15954.\n24. Krebs LT, Xue Y, Norton CR, Shutter JR, Maguire M, et al. (2000) Notch\nsignaling is essential for vascular morphogenesis in mice. Genes Dev 14: 1343–\n1352.\n25. Limbourg FP, Takeshita K, Radtke F, Bronson RT, Chin MT, et al. (2005)\nEssential role of endothelial Notch1 in angiogenesis. Circulation 111: 1826–1832.\n26. McCright B, Gao X, Shen L, Lozier J, Lan Y, et al. (2001) Defects in\ndevelopment of the kidney, heart and eye vasculature in mice homozygous for a\nhypomorphic Notch2 mutation. Development 128: 491–502.\n27. Domenga V, Fardoux P, Lacombe P, Monet M, Maciazek J, et al. (2004) Notch3\nis required for arterial identity and maturation of vascular smooth muscle cells.\nGenes Dev 18: 2730–2735.\n28. High FA, Zhang M, Proweller A, Tu L, Parmacek MS, et al. (2007) An essential\nrole for Notch in neural crest during cardiovascular development and smooth\nmuscle differentiation. J Clin Invest 117: 353–363.\n29. Ridgway J, Zhang G, Wu Y, Stawicki S, Liang WC, et al. (2006) Inhibition of\nDll4 signalling inhibits tumour growth by deregulating angiogenesis. Nature 444:\n1083–1087.\n30. Hellstrom M, Phng LK, Hofmann JJ, Wallgard E, Coultas L, et al. (2007) Dll4\nsignalling through Notch1 regulates formation of tip cells during angiogenesis.Nature 445: 776–780.\n31. Noguera-Troise I, Daly C, Papadopoulos NJ, Coetzee S, Boland P, et al. (2006)\nBlockade of Dll4 inhibits tumour growth by promoting non-productive\nangiogenesis. Nature 444: 1032–1037.\n32. Lindner V, Booth C, Prudovsky I, Small D, Maciag T, et al. (2001) Members of\nthe Jagged/Notch gene families are expressed in injured arteries and regulate\ncell phenotype via alterations in cell matrix and cell-cell interaction. Am J Pathol159: 875–883.33. Sweeney C, Morrow D, Birney YA, Coyle S, Hennessy C, et al. (2004) Notch 1\nand 3 receptor signaling modulates vascular smooth muscle cell growth,\napoptosis, and migration via a CBF-1/RBP-Jk dependent pathway. Faseb J 18:1421–1423.\n34. Liu H, Kennard S, Lilly B (2009) NOTCH3 expression is induced in mural cells\nthrough an autoregulatory loop that requires endothelial-expressed JAGGED1.\nCirc Res 104: 466–475.\n35. Tang Y, Urs S, Boucher J, Bernaiche T, Venkatesh D, et al. (2010) Notch and\ntransforming growth factor-beta (TGFbeta) signaling pathways cooperatively\nregulate vascular smooth muscle cell differentiation. J Biol Chem 285: 17556–\n17563.\n36. Opherk C, Duering M, Peters N, Karpinska A, Rosner S, et al. (2009)\nCADASIL mutations enhance spontaneous multimerization of NOTCH3. Hum\nMol Genet 18: 2761–2767.\n37. Duering M, Karpinska A, Rosner S, Hopfner F, Zechmeister M, et al. (2011)\nCo-aggregate formation of CADASIL-mutant NOTCH3: a single-particleanalysis. Hum Mol Genet.\n38. Takahashi K, Adachi K, Yoshizaki K, Kunimoto S, Kalaria RN, et al. (2010)\nMutations in NOTCH3 cause the formation and retention of aggregates in theendoplasmic reticulum, leading to impaired cell proliferation. Hum Mol Genet\n19: 79–89.\n39. Zhang Y, Jia L, Lee SJ, Wang MM (2007) Conserved signal peptide of Notch3\ninhibits interaction with proteasome. Biochem Biophys Res Commun 355: 245–\n251.\n40. Jia L, Yu G, Zhang Y, Wang MM (2009) Lysosome-dependent degradation of\nNotch3. Int J Biochem Cell Biol 41: 2594–2598.', 'PLOS ONE | www.plosone.org 4 September 2012 | Volume 7 | Issue 9 | e44964\nand 5C). Specifically, decay of the R90C ectodomain was\nsignificantly impaired compared to wildtype, while C49Yectodomain displayed a less severe reduction in clearance. Whenthe wildtype and R90C mutant proteins were cotransfected incells, the overall clearance of NOTCH3 ectodomains was reducedand displayed an intermediate between wildtype and mutant rates.When C49Y protein was cotransfected with wildtype NOTCH3,the clearance of NOTCH3 proteins adopted the slower clearancerate of the C49Y protein. These results suggest that the C49Yprotein (but not the R90C protein) can dominantly influence theclearance rate of coexpressed NOTCH3.\nNOTCH3 Exerts a Dominant Negative Effects on Notch\nSignaling\nSince both WT and mutant NOTCH3 dimerize with other\nNOTCH proteins and CADASIL mutations in NOTCH causeddecreased solubility and clearance of NOTCH3 ectodomains, wehypothesized that increased NOTCH3 could affect Notchsignaling. We tested how overexpressed full-length NOTCH3affects Notch signaling by utilizing a well-established coculturesystem to measure the effects of expression of wildtype or mutantfull-length NOTCH3 on Notch regulated smooth muscle genes.\nA7R5 rat aortic smooth muscle cells express Notch1 and\nNotch3 mRNA, and, to a lesser degree, Notch4 transcripts (not\nshown). SM-MHC, SMA, SM22, and calponin were allupregulated in A7R5 cells by coculture with ligand producingcells (Figure 6). Transfection with full-length Notch3 (WT ormutant) clearly did not increase the expression of these genes;rather, NOTCH3 transfection inhibited ligand dependent in-\nFigure 3. NOTCH3 ectodomain interacts with both NOTCH1\nand NOTCH4 ectodomains. Interactions between NOTCH3 (WT and\nmutants) with NOTCH1 or NOTCH4 [41] were tested after cotransfectionof plasmid combinations shown. Protein from transfected cells were\nevaluated by immunoblotting (input) and by immunoprecipitation with\nV5 monoclonal antibody followed by immunoblotting (IP:V5). Each ofthe NOTCH3 ectodomain constructs coprecipitated with both V5-tagged NOTCH1 or NOTCH4 proteins, which migrate with apparentmolecular weights of .280 kDa and 180 kDa, respectively. All\nexperiments were performed three times.doi:10.1371/journal.pone.0044964.g003\nFigure 4. Detergent solubility and formation of inclusions of NOTCH3 expressed in cell culture. NOTCH3 complexes containing wildtype\nprotein or mutant proteins were tested for detergent solubility. Total protein from cell lines expressing WT or mutant NOTCH3 were sequentiallyextracted as detailed in methods, using progressively higher strengths of detergents. Cells were grown at low density (A) or in confluent monolayers\n(B). While WT protein was modestly soluble, the mutant proteins were extractable only in higher detergent concentrations. NOTCH3 protein was\ndetected using antisera from Santa Cruz. The control protein tubulin was readily extractable without detergents. Experiments were performed threetimes with consistent results. Cell lines were immunostained with the same antisera or with antibodies from R&amp;D, revealing diffuse cell staining wit h\nfocal accumulations in the perinuclear areas of cells expressing both wildtype and mutant proteins (C). A significant difference in the percentage o f\ncells with perinuclear expression of the protein was notable at low cell density (D) (over 250 cells were counted for each cell line and condition.Results were reproduced three times, and significance was considered p ,0.05.\ndoi:10.1371/journal.pone.0044964.g004Cellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 5 September 2012 | Volume 7 | Issue 9 | e44964\nCellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 6 September 2012 | Volume 7 | Issue 9 | e44964\ncreases in transcript levels in cocultures (rat smooth muscle mRNA']</t>
         </is>
       </c>
     </row>
@@ -888,11 +892,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following mitochondrial diseases have been attributed to POLG mutations:
-1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and recessive forms of PEO can be caused by POLG mutations. The context mentions that "Autosomal recessive PEO can be caused by mutations in POLG."
-2. A condition resembling mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The paper describes patients with clinical features similar to MNGIE who were found to have POLG mutations rather than the typical TP mutations seen in MNGIE. Specifically, it states "Here, we report the finding of recessive missense mutations in POLG in two sisters with a clinical phenotype undistinguishable from MNGIE."
-3. A syndrome involving PEO, axonal sensory ataxic neuropathy, and other variable features - The context mentions that recessive PEO patients with POLG mutations can have a heterogeneous phenotype including "PEO and axonal sensory neuropathy but associated features are quite variable, including sensory ataxia, cardiomyopathy, retinopathy, sensorineural hearing loss, thalamic lesions, muscle dystrophy, facial diplegia, dysarthria and dysphagia."
-The paper indicates that POLG mutations can cause a spectrum of mitochondrial disorders, with PEO being a common feature but other manifestations being quite variable. The key point is that POLG mutations should be considered in patients with features of mitochondrial disease, even if the presentation resembles other known mitochondrial disorders like MNGIE.</t>
+          <t>Based on the context provided, the following mitochondrial diseases have been attributed to mutations in the POLG gene:
+1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and recessive forms of PEO can be caused by POLG mutations.
+2. A condition resembling mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The paper describes patients with features similar to MNGIE who were found to have POLG mutations rather than the typical TP mutations seen in MNGIE.
+3. Conditions involving multiple mtDNA deletions in muscle tissue.
+4. Disorders with features including:
+- Axonal sensory ataxic neuropathy
+- Muscle weakness 
+- Cachexia
+- Gastrointestinal symptoms like chronic pseudo-obstruction
+5. Variable associated features in some patients with POLG mutations can include:
+- Sensory ataxia
+- Cardiomyopathy  
+- Retinopathy
+- Sensorineural hearing loss
+- Thalamic lesions
+- Muscle dystrophy
+- Facial diplegia
+- Dysarthria 
+- Dysphagia
+The paper notes that recessive POLG mutations can cause a heterogeneous clinical phenotype, in contrast to the more homogeneous presentation of MNGIE caused by TP mutations. However, POLG mutations have not been associated with leukoencephalopathy on brain MRI, which is typically seen in MNGIE.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -902,12 +921,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.3892_or.2012.1625.pdf']</t>
+          <t>['10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1186_1471-2350-12-138.pdf']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['described elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,\naxonal sensory ataxic neuropathy, muscle weakness and\ncachexia. Brain MRI was normal. Muscle biopsy demon-\nstrated few ragged red fibers, cytochrome coxidase\nnegative fibers, decreased enzymatic activities of respira-\ntory chain complexes I and IV, depletion of mtDNA and\nmultiple mtDNA deletions. Direct sequencing revealed\nhomozygosity for a common polymorphism in TPbut no\npathogenic mutations and enzymatic TP activity in\nleukocytes was normal.9The pedigree of the recessive\nfamily is shown in Figure 1a.\nIn both the patients, pathogenic mutations in TPhad\nbeen excluded previously.9The fact that axonal predomi-\nnantly sensory peripheral neuropathy is common in\nrecessive PEO patients with POLG mutations,6prompted\nus to analyze POLG. Sequencing of all coding POLG exons\nusing flanking intronic primers4in the proband (II.4)\nrevealed the presence of three single-base changes. One\nmutation in exon 3 (c.752C -T), predicting the amino-\nacid substitution T251I, has already been reported in fourItalian compound heterozygote recessive PEO patients of\nthree unrelated families, while absent in Italian control\nindividuals.5The other two mutations, in exons 10\n(c.1760C -T) and 16 (c.2591A -T), are novel and predict\nP587L and N864S substitutions, respectively. Segregation\nof the mutations within the family is depicted in Figure 1a.\nDNA from the deceased affected sister (II.1) had to be\nrecovered from paraffin-embedded tissue and we were only\nable to demonstrate the presence of T251I in this patient.\nThe occurrence of N864S in her unaffected son (III.1, aged\n24 years), however, demonstrated that she is an obligate\ncarrier of this mutation. The unaffected grandmother (I.2)\nand grandson (III.1) are heterozygote carriers of N864S,\nindicating that N864S is in trans with the other two\nmutations, T251I and P587L. The cisconfiguration of\nT251I and P587L is confirmed by their heterozygous\nappearance in the unaffected granddaughter (III.2, aged\n12 years). The segregation in the family is consistent with\nthe recessive nature of the three POLG mutations with the\ntwo patients being compound heterozygotes. All three\nmutations (T251I, P587L and N864S) were absent in 280\ncontrol chromosomes (90 Belgian and 50 Danish healthy\ncontrol individuals). Belgian controls were examined using\nFigure 1 (a) Segregation analysis of POLG mutations. Squares represent males, circles represent females, filled symbols represent\naffected individuals and slashed symbols represent deceased individuals. Alleles/haplotypes between brackets were reconstructed\nfrom the pedigree data. ( b) Position of mutant residues in POLG and amino-acid sequence alignment, showing evolutionary\nconservation of altered residues.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n548\nEuropean Journal of Human Genetics\nthe pyrosequencing technique,10whereas Danish controls\nwere tested by restriction enzyme digestion (T251I destroys\naBsrI site, P587L creates an Xmn I site and N864S creates a\nBsp1286I site). The three mutations apparently have a low\nfrequency in the population examined ( o0.36%) and thus\nare rare polymorphisms. All three mutations in this family\nalter evolutionary conserved residues (Figure 1b). Since\nthere are currently no methods available for studying the\nfunctional effects of POLG mutations in vivo , we cannot\nreach a conclusion about the pathogenic nature of the\nthree POLG mutations. Also, we cannot exclude that either\nall three POLG mutations or one of the two possible trans\ncombinations contribute to the phenotype in the patients.\nOur finding expands the clinical spectrum of recessive\nPOLG mutations since severe gastrointestinal features\ncaused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of', 'caused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of\nMNGIE caused by TPmutations.8,11The more severe\nphenotype in the present family versus previously described\nrecessive PEO patients with POLG mutations might result\nfrom a greater functional impairment of POLG induced by\nthe three mutations together. Also, depending on the\nlocation of the mutation within POLG a more or less severe\neffect on POLG functioning may result. In this respect, it is\nworth mentioning that N864S involves a highly conserved\nsequence block close to the POLG polymerase motif A, and\nthat T251I is located between the POLG exonuclease motifs\nI and II (Figure 1b). Data from the current literature show\nthat the clinical phenotype of recessive PEO patients with\nPOLG mutations is quite heterogeneous. Common features\ninclude PEO and axonal sensory neuropathy but associated\nfeatures are quite variable, including sensory ataxia,\ncardiomyopathy, retinopathy, sensorineural hearing loss,\nthalamic lesions, muscle dystrophy, facial diplegia, dysar-\nthria and dysphagia.5,6This protean presentation of\nrecessive POLG mutations contrasts with the apparently\nhomogeneous clinical picture of MNGIE, which is caused\nby mutations in TP.8Only the absence of leukoencephalo-\npathy on brain MRI could distinguish our patients from\nthose with TPmutations. However, in earlier descriptive\nstudies on MNGIE, leukoencephalopathy was not an\ninclusion criterion.11On the other hand, leukoencephalo-\npathy has not yet been encountered in patients with POLG\nmutations,5,6,12and it has been suggested that in MNGIE\npatients leukoencephalopathy could be related to the role\nthat TPplays in glial cell proliferation or cortical neuron\ntrophism, which is unrelated to the effect of TPonnucleotide metabolism.7If further studies on TPand POLG\nin patients with recessive PEO or MNGIE characterized\nby multiple mtDNA deletions would confirm these data,\nbrain MRI could be used as a noninvasive test to diff-\nerentiate patients with TPmutations from those with POLG\nmutations.\nAcknowledgements\nThis work was in part supported by a grant from the Danish National\nResearch Foundation (504-14). BD is a doctoral fellow of the Fund for\nScientific Research-Flanders (FWO-F).\nReferences\n1 Zeviani M, Servidei S, Gellera C, Bertini E, DiMauro S, DiDonato\nS: An autosomal dominant disorder with multiple deletions of\nmitochondrial DNA starting at the D-loop region. Nature 1989;\n339: 309–311.\n2 Kaukonen J, Juselius JK, Tiranti V et al: Role of adenine nucleotide\ntranslocator 1 in mtDNA maintenance. Science 2000; 289:\n782–785.\n3 Spelbrink JN, Li FY, Tiranti V et al: Human mitochondrial DNA\ndeletions associated with mutations in the gene encoding\nTwinkle a, phage T7 gene 4-like protein localized in\nmitochondria. Nat Genet 2001; 28: 223–231.\n4 Van Goethem G, Dermaut B, Lofgren A, Martin JJ, Van\nBroeckhoven C: Mutation of POLG is associated with\nprogressive external ophthalmoplegia characterized by mtDNA\ndeletions. Nat Genet 2001; 28: 211–212.\n5 Lamantea E, Tiranti V, Bordoni A et al : Mutations of mito-\nchondrial DNA polymerase gammaA are a frequent cause of\nautosomal dominant or recessive progressive external ophthal-\nmoplegia. Ann Neurol 2002; 52: 211–219.\n6 Van Goethem G, Martin JJ, Dermaut B et al : Recessive POLG\nmutations presenting with sensory and ataxic neuropathy in\ncompound heterozygote patients with progressive external\nophthalmoplegia. Neuromuscul Disord 2002; 13: 133–142.\n7 Nishino I, Spinazzola A, Hirano M: Thymidine phosphorylase\ngene mutations in MNGIE, a human mitochondrial disorder.\nScience 1999; 283: 689–692.\n8 Nishino I, Spinazzola A, Papadimitriou A et al : Mitochondrial\nneurogastrointestinal encephalomyopathy: an autosomal\nrecessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions', 'SHORT REPORT\nNovel POLG mutations in progressive external\nophthalmoplegia mimicking mitochondrial\nneurogastrointestinal encephalomyopathy\nGert Van Goethem*,1,2, Marianne Schwartz3, Ann Lo ¨fgren2, Bart Dermaut2,\nChristine Van Broeckhoven2and John Vissing4\n1Neuromuscular Reference Center and Department of Neurology, University Hospital of Antwerp (UZA), Antwerpen,\nBelgium;2Department of Molecular Genetics, Flanders Interuniversity Institute for Biotechnology (VIB8), Born-Bunge\nFoundation (BBS), University of Antwerp (UA), Antwerpen, Belgium;3Department of Clinical Genetics, National\nUniversity Hospital, Rigshospitalet, Copenhagen, Denmark;4Department of Neurology and the Copenhagen Muscle\nResearch Center, National University Hospital, Rigshospitalet, Copenhagen, Denmark\nAutosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with\nmultiple mitochondrial DNA deletions and can be caused by missense mutations in POLG , the gene\nencoding the mitochondrial DNA polymerase gamma. Mitochondrial neurogastrointestinal\nencephalomyopathy (MNGIE) is another autosomal recessive disorder associated with PEO and multiple\ndeletions of mitochondrial DNA in skeletal muscle. In several patients this disorder is caused by loss of\nfunction mutations in the gene encoding thymidine phosphorylase ( TP). We report a recessive family with\nfeatures of MNGIE but no leukoencephalopathy in which two patients carry three missense mutations in\nPOLG , of which two are novel mutations (N846S and P587L). The third mutation was previously reported as\na recessive POLG mutation (T251I). This finding indicates the need for POLG sequencing in patients with\nfeatures of MNGIE without TPmutations.\nEuropean Journal of Human Genetics (2003) 11,547–549. doi:10.1038/sj.ejhg.5201002\nKeywords: MNGIE; Multiple mtDNA deletions; POLG ; PEO\nProgressive external ophthalmoplegia (PEO) is a common\nsign in mitochondrial disorders and often co-occurs with\nother variable disease features. One form of PEO is\nassociated with multiple deletions of mitochondrial DNA\n(mtDNA) in skeletal muscle.1These mtDNA deletions are\nsecondary to an inherited disorder of mtDNA maintenance\ncaused by a defect in a nuclear gene. In recent years, defects\nin different nuclear genes have been identified that\npredispose to both dominant and recessive forms of PEO\nassociated with multiple mtDNA deletions. Dominant PEOcan be caused by mutations in the genes encoding the\nheart/skeletal muscle isoform of the adenine nucleotide\ntranslocator ( ANT1 ),2the novel mitochondrial protein\nTwinkle ( C10orf2 )3and the mtDNA polymerase gamma\n(POLG ).4Autosomal recessive PEO can be caused by\nmutations in POLG .4–6So far mutations in the gene\nencoding thymidine phosphorylase ( TP) have been exclu-\nsively found in patients with mitochondrial neurogastroin-\ntestinal encephalomyopathy (MNGIE).7MNGIE patients\ntypically have severe gastrointestinal manifestations in-\ncluding recurrent vomiting and intestinal pseudo-obstruc-\ntion, peripheral neuropathy, ophthalmoplegia, ptosis and\ncachexia. Various laboratory findings are reported, includ-\ning leukoencephalopathy on brain MRI.8Here, we report\nthe finding of recessive missense mutations in POLG in two\nsisters with a clinical phenotype undistinguishable from\nMNGIE.Received 24 December 2002; revised 26 February 2003; accepted 27\nFebruary 2003*Correspondence: Dr G Van Goethem, Department of Molecular Genetics\n(VIB8), Born-Bunge Foundation (BBS), University of Antwerp (UA),\nUniversiteitsplein 1, B-2610 Antwerpen, Belgium. Tel: +32 3 8202307;\nFax: +32 3 8202541;\nE-mail: vgoethge@uia.ua.ac.be\nEuropean Journal of Human Genetics (2003) 11, 547–549\n&amp;2003 Nature Publishing Group All rights reserved 1018-4813/03 $25.00\nwww.nature.com/ejhg\nThe detailed clinical and laboratory features were\ndescribed elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,', 'recessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions\nwith features of MNGIE. Neurology 2002; 59: 926–929.\n10 Alderborn A, Kristofferson A, Hammerling U: Determination of\nsingle-nucleotide polymorphisms by real-time pyrophosphate\nDNA sequencing. Genome Res 2000; 10: 1249–1258.\n11 Hirano M, Silvestri G, Blake DM et al : Mitochondrial neuro-\ngastrointestinal encephalomyopathy (MNGIE): clinical, biochemical,\nand genetic features of an autosomal recessive mitochondrial\ndisorder. Neurology 1994; 44: 721–727.\n12 Van Goethem G, Martin JJ, Lofgren A et al: Unusual presentation\nand clinical variability in Belgian pedigrees with progressive\nexternal ophthalmoplegia and multiple deletions of mito-\nchondrial DNA. Eur J Neurol 1997; 4: 476–484.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n549\nEuropean Journal of Human Genetics', '28. Takaki T, Trenz K, Costanzo V and Petronczki M: Polo-like \nkinase 1 reaches beyond mitosis-cytokinesis, DNA damage \nresponse, and development. Curr Opin Cell Biol 20: 650-660, \n2008.\n29. Weichert W, Denkert C, Schmidt M, et al : Polo-like kinase \nisoform expression is a prognostic factor in ovarian carcinoma. \nBr J Cancer 90: 815-821, 2004.\n30. Degenhardt Y and Lampkin T: Targeting Polo-like kinase in \ncancer therapy. Clin Cancer Res 16: 384-389, 2010.\n31. Strebhardt K and Ullrich A: Targeting polo-like kinase 1 for \ncancer therapy. Nat Rev Cancer 6: 321-330, 2006.\n32. Gao Q, Huang X, Tang D, et al : Influence of chk1 and plk1 \nsilencing on radiation- or cisplatin-induced cytotoxicity in \nhuman malignant cells. Apoptosis 11: 1789-1800, 2006.']</t>
+          <t>['described elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,\naxonal sensory ataxic neuropathy, muscle weakness and\ncachexia. Brain MRI was normal. Muscle biopsy demon-\nstrated few ragged red fibers, cytochrome coxidase\nnegative fibers, decreased enzymatic activities of respira-\ntory chain complexes I and IV, depletion of mtDNA and\nmultiple mtDNA deletions. Direct sequencing revealed\nhomozygosity for a common polymorphism in TPbut no\npathogenic mutations and enzymatic TP activity in\nleukocytes was normal.9The pedigree of the recessive\nfamily is shown in Figure 1a.\nIn both the patients, pathogenic mutations in TPhad\nbeen excluded previously.9The fact that axonal predomi-\nnantly sensory peripheral neuropathy is common in\nrecessive PEO patients with POLG mutations,6prompted\nus to analyze POLG. Sequencing of all coding POLG exons\nusing flanking intronic primers4in the proband (II.4)\nrevealed the presence of three single-base changes. One\nmutation in exon 3 (c.752C -T), predicting the amino-\nacid substitution T251I, has already been reported in fourItalian compound heterozygote recessive PEO patients of\nthree unrelated families, while absent in Italian control\nindividuals.5The other two mutations, in exons 10\n(c.1760C -T) and 16 (c.2591A -T), are novel and predict\nP587L and N864S substitutions, respectively. Segregation\nof the mutations within the family is depicted in Figure 1a.\nDNA from the deceased affected sister (II.1) had to be\nrecovered from paraffin-embedded tissue and we were only\nable to demonstrate the presence of T251I in this patient.\nThe occurrence of N864S in her unaffected son (III.1, aged\n24 years), however, demonstrated that she is an obligate\ncarrier of this mutation. The unaffected grandmother (I.2)\nand grandson (III.1) are heterozygote carriers of N864S,\nindicating that N864S is in trans with the other two\nmutations, T251I and P587L. The cisconfiguration of\nT251I and P587L is confirmed by their heterozygous\nappearance in the unaffected granddaughter (III.2, aged\n12 years). The segregation in the family is consistent with\nthe recessive nature of the three POLG mutations with the\ntwo patients being compound heterozygotes. All three\nmutations (T251I, P587L and N864S) were absent in 280\ncontrol chromosomes (90 Belgian and 50 Danish healthy\ncontrol individuals). Belgian controls were examined using\nFigure 1 (a) Segregation analysis of POLG mutations. Squares represent males, circles represent females, filled symbols represent\naffected individuals and slashed symbols represent deceased individuals. Alleles/haplotypes between brackets were reconstructed\nfrom the pedigree data. ( b) Position of mutant residues in POLG and amino-acid sequence alignment, showing evolutionary\nconservation of altered residues.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n548\nEuropean Journal of Human Genetics\nthe pyrosequencing technique,10whereas Danish controls\nwere tested by restriction enzyme digestion (T251I destroys\naBsrI site, P587L creates an Xmn I site and N864S creates a\nBsp1286I site). The three mutations apparently have a low\nfrequency in the population examined ( o0.36%) and thus\nare rare polymorphisms. All three mutations in this family\nalter evolutionary conserved residues (Figure 1b). Since\nthere are currently no methods available for studying the\nfunctional effects of POLG mutations in vivo , we cannot\nreach a conclusion about the pathogenic nature of the\nthree POLG mutations. Also, we cannot exclude that either\nall three POLG mutations or one of the two possible trans\ncombinations contribute to the phenotype in the patients.\nOur finding expands the clinical spectrum of recessive\nPOLG mutations since severe gastrointestinal features\ncaused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of', 'caused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of\nMNGIE caused by TPmutations.8,11The more severe\nphenotype in the present family versus previously described\nrecessive PEO patients with POLG mutations might result\nfrom a greater functional impairment of POLG induced by\nthe three mutations together. Also, depending on the\nlocation of the mutation within POLG a more or less severe\neffect on POLG functioning may result. In this respect, it is\nworth mentioning that N864S involves a highly conserved\nsequence block close to the POLG polymerase motif A, and\nthat T251I is located between the POLG exonuclease motifs\nI and II (Figure 1b). Data from the current literature show\nthat the clinical phenotype of recessive PEO patients with\nPOLG mutations is quite heterogeneous. Common features\ninclude PEO and axonal sensory neuropathy but associated\nfeatures are quite variable, including sensory ataxia,\ncardiomyopathy, retinopathy, sensorineural hearing loss,\nthalamic lesions, muscle dystrophy, facial diplegia, dysar-\nthria and dysphagia.5,6This protean presentation of\nrecessive POLG mutations contrasts with the apparently\nhomogeneous clinical picture of MNGIE, which is caused\nby mutations in TP.8Only the absence of leukoencephalo-\npathy on brain MRI could distinguish our patients from\nthose with TPmutations. However, in earlier descriptive\nstudies on MNGIE, leukoencephalopathy was not an\ninclusion criterion.11On the other hand, leukoencephalo-\npathy has not yet been encountered in patients with POLG\nmutations,5,6,12and it has been suggested that in MNGIE\npatients leukoencephalopathy could be related to the role\nthat TPplays in glial cell proliferation or cortical neuron\ntrophism, which is unrelated to the effect of TPonnucleotide metabolism.7If further studies on TPand POLG\nin patients with recessive PEO or MNGIE characterized\nby multiple mtDNA deletions would confirm these data,\nbrain MRI could be used as a noninvasive test to diff-\nerentiate patients with TPmutations from those with POLG\nmutations.\nAcknowledgements\nThis work was in part supported by a grant from the Danish National\nResearch Foundation (504-14). BD is a doctoral fellow of the Fund for\nScientific Research-Flanders (FWO-F).\nReferences\n1 Zeviani M, Servidei S, Gellera C, Bertini E, DiMauro S, DiDonato\nS: An autosomal dominant disorder with multiple deletions of\nmitochondrial DNA starting at the D-loop region. Nature 1989;\n339: 309–311.\n2 Kaukonen J, Juselius JK, Tiranti V et al: Role of adenine nucleotide\ntranslocator 1 in mtDNA maintenance. Science 2000; 289:\n782–785.\n3 Spelbrink JN, Li FY, Tiranti V et al: Human mitochondrial DNA\ndeletions associated with mutations in the gene encoding\nTwinkle a, phage T7 gene 4-like protein localized in\nmitochondria. Nat Genet 2001; 28: 223–231.\n4 Van Goethem G, Dermaut B, Lofgren A, Martin JJ, Van\nBroeckhoven C: Mutation of POLG is associated with\nprogressive external ophthalmoplegia characterized by mtDNA\ndeletions. Nat Genet 2001; 28: 211–212.\n5 Lamantea E, Tiranti V, Bordoni A et al : Mutations of mito-\nchondrial DNA polymerase gammaA are a frequent cause of\nautosomal dominant or recessive progressive external ophthal-\nmoplegia. Ann Neurol 2002; 52: 211–219.\n6 Van Goethem G, Martin JJ, Dermaut B et al : Recessive POLG\nmutations presenting with sensory and ataxic neuropathy in\ncompound heterozygote patients with progressive external\nophthalmoplegia. Neuromuscul Disord 2002; 13: 133–142.\n7 Nishino I, Spinazzola A, Hirano M: Thymidine phosphorylase\ngene mutations in MNGIE, a human mitochondrial disorder.\nScience 1999; 283: 689–692.\n8 Nishino I, Spinazzola A, Papadimitriou A et al : Mitochondrial\nneurogastrointestinal encephalomyopathy: an autosomal\nrecessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions', 'SHORT REPORT\nNovel POLG mutations in progressive external\nophthalmoplegia mimicking mitochondrial\nneurogastrointestinal encephalomyopathy\nGert Van Goethem*,1,2, Marianne Schwartz3, Ann Lo ¨fgren2, Bart Dermaut2,\nChristine Van Broeckhoven2and John Vissing4\n1Neuromuscular Reference Center and Department of Neurology, University Hospital of Antwerp (UZA), Antwerpen,\nBelgium;2Department of Molecular Genetics, Flanders Interuniversity Institute for Biotechnology (VIB8), Born-Bunge\nFoundation (BBS), University of Antwerp (UA), Antwerpen, Belgium;3Department of Clinical Genetics, National\nUniversity Hospital, Rigshospitalet, Copenhagen, Denmark;4Department of Neurology and the Copenhagen Muscle\nResearch Center, National University Hospital, Rigshospitalet, Copenhagen, Denmark\nAutosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with\nmultiple mitochondrial DNA deletions and can be caused by missense mutations in POLG , the gene\nencoding the mitochondrial DNA polymerase gamma. Mitochondrial neurogastrointestinal\nencephalomyopathy (MNGIE) is another autosomal recessive disorder associated with PEO and multiple\ndeletions of mitochondrial DNA in skeletal muscle. In several patients this disorder is caused by loss of\nfunction mutations in the gene encoding thymidine phosphorylase ( TP). We report a recessive family with\nfeatures of MNGIE but no leukoencephalopathy in which two patients carry three missense mutations in\nPOLG , of which two are novel mutations (N846S and P587L). The third mutation was previously reported as\na recessive POLG mutation (T251I). This finding indicates the need for POLG sequencing in patients with\nfeatures of MNGIE without TPmutations.\nEuropean Journal of Human Genetics (2003) 11,547–549. doi:10.1038/sj.ejhg.5201002\nKeywords: MNGIE; Multiple mtDNA deletions; POLG ; PEO\nProgressive external ophthalmoplegia (PEO) is a common\nsign in mitochondrial disorders and often co-occurs with\nother variable disease features. One form of PEO is\nassociated with multiple deletions of mitochondrial DNA\n(mtDNA) in skeletal muscle.1These mtDNA deletions are\nsecondary to an inherited disorder of mtDNA maintenance\ncaused by a defect in a nuclear gene. In recent years, defects\nin different nuclear genes have been identified that\npredispose to both dominant and recessive forms of PEO\nassociated with multiple mtDNA deletions. Dominant PEOcan be caused by mutations in the genes encoding the\nheart/skeletal muscle isoform of the adenine nucleotide\ntranslocator ( ANT1 ),2the novel mitochondrial protein\nTwinkle ( C10orf2 )3and the mtDNA polymerase gamma\n(POLG ).4Autosomal recessive PEO can be caused by\nmutations in POLG .4–6So far mutations in the gene\nencoding thymidine phosphorylase ( TP) have been exclu-\nsively found in patients with mitochondrial neurogastroin-\ntestinal encephalomyopathy (MNGIE).7MNGIE patients\ntypically have severe gastrointestinal manifestations in-\ncluding recurrent vomiting and intestinal pseudo-obstruc-\ntion, peripheral neuropathy, ophthalmoplegia, ptosis and\ncachexia. Various laboratory findings are reported, includ-\ning leukoencephalopathy on brain MRI.8Here, we report\nthe finding of recessive missense mutations in POLG in two\nsisters with a clinical phenotype undistinguishable from\nMNGIE.Received 24 December 2002; revised 26 February 2003; accepted 27\nFebruary 2003*Correspondence: Dr G Van Goethem, Department of Molecular Genetics\n(VIB8), Born-Bunge Foundation (BBS), University of Antwerp (UA),\nUniversiteitsplein 1, B-2610 Antwerpen, Belgium. Tel: +32 3 8202307;\nFax: +32 3 8202541;\nE-mail: vgoethge@uia.ua.ac.be\nEuropean Journal of Human Genetics (2003) 11, 547–549\n&amp;2003 Nature Publishing Group All rights reserved 1018-4813/03 $25.00\nwww.nature.com/ejhg\nThe detailed clinical and laboratory features were\ndescribed elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,', 'recessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions\nwith features of MNGIE. Neurology 2002; 59: 926–929.\n10 Alderborn A, Kristofferson A, Hammerling U: Determination of\nsingle-nucleotide polymorphisms by real-time pyrophosphate\nDNA sequencing. Genome Res 2000; 10: 1249–1258.\n11 Hirano M, Silvestri G, Blake DM et al : Mitochondrial neuro-\ngastrointestinal encephalomyopathy (MNGIE): clinical, biochemical,\nand genetic features of an autosomal recessive mitochondrial\ndisorder. Neurology 1994; 44: 721–727.\n12 Van Goethem G, Martin JJ, Lofgren A et al: Unusual presentation\nand clinical variability in Belgian pedigrees with progressive\nexternal ophthalmoplegia and multiple deletions of mito-\nchondrial DNA. Eur J Neurol 1997; 4: 476–484.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n549\nEuropean Journal of Human Genetics', '19. Mulligan LM, Eng C, Attié T, Lyonnet S, Marsh DJ, Hyland VJ, Robinson BG,\nFrilling A, Verellen-Dumoulin C, Safar A, et al:Diverse phenotypes\nassociated with exon 10 mutations of the RET proto-oncogene. Hum Mol\nGenet 1994, 3:2163-2167.\n20. Wu TT, Tsai TW, Chu CT, Lee ZF, Hung CM, Su CC, Li SY, Hsieh M, Li C: Low\nRET mutation frequency and polymorphism analysis of the RET andEDNRB genes in patients with Hirschsprung disease in Taiwan. J Hum\nGenet 2005, 50(4) :168-74.\nPre-publication historyThe pre-publication history for this paper can be accessed here:http://www.biomedcentral.com/1471-2350/12/138/prepub\ndoi:10.1186/1471-2350-12-138\nCite this article as: Núñez-Torres et al.:Comprehensive analysis of RET\ncommon and rare variants in a series of Spanish Hirschsprung patientsconfirms a synergistic effect of both kinds of events. BMC Medical\nGenetics 2011 12:138.\nSubmit your next manuscript to BioMed Central\nand take full advantage of: \n• Convenient online submission\n• Thorough peer review\n• No space constraints or color ﬁgure charges\n• Immediate publication on acceptance\n• Inclusion in PubMed, CAS, Scopus and Google Scholar\n• Research which is freely available for redistribution\nSubmit your manuscript at \nwww.biomedcentral.com/submitNúñez-Torres et al .BMC Medical Genetics 2011, 12:138\nhttp://www.biomedcentral.com/1471-2350/12/138Page 7 of 7']</t>
         </is>
       </c>
     </row>
@@ -924,22 +943,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Based on the provided context, several miRNAs have been identified as potential biomarkers for epithelial ovarian cancer (EOC):
+          <t>Based on the information provided in the context, several miRNAs have been identified as potential biomarkers for epithelial ovarian cancer (EOC):
 1. miR-200 family members (miR-200a, miR-200b, miR-200c, miR-141):
-- Consistently upregulated in EOC tissues compared to normal ovarian tissues in multiple studies
+- Consistently upregulated in EOC tissues in multiple studies
 - Serum levels of miR-200a, miR-200b and miR-200c were significantly higher in EOC patients compared to healthy controls
 2. miR-100:
 - Consistently downregulated in EOC tissues in multiple studies
 - Downregulated in 76% of EOC tumors in one study
 3. miR-152 and miR-148a:
-- Downregulated in EOC tissues and cell lines 
-- May be involved in EOC carcinogenesis through deregulation of cell proliferation
-4. miR-182:
-- Highly overexpressed in EOC cell lines compared to normal ovarian epithelial cells
-5. Other miRNAs mentioned as differentially expressed in EOC:
-- Downregulated: miR-125b, miR-140, miR-145, miR-199a
-- Upregulated: miR-214
-The miR-200 family members (especially miR-200b and miR-200c) and miR-100 appear to be the most consistently dysregulated across multiple studies, making them promising candidates as potential biomarkers for EOC. However, further validation studies are needed to confirm their clinical utility.</t>
+- Downregulated in EOC tissues and cell lines
+- Involved in regulating cell proliferation in EOC
+4. miR-199a*, miR-214:
+- Highly differentially expressed between normal ovarian cells and EOC tumors
+5. miR-210, miR-22, miR-222:
+- Downregulated in EOC tissues
+The miR-200 family members (especially miR-200b and miR-200c) appear to be the most promising potential biomarkers based on their consistent upregulation in EOC tissues and detectable elevation in serum of EOC patients. miR-100 also shows potential as a biomarker due to its consistent downregulation across multiple studies.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
